--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_12_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_12_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51702.28690341577</v>
+        <v>-62983.27597925504</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31290076.86391732</v>
+        <v>31290036.35421877</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19909157.57203458</v>
+        <v>19913989.81517239</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>843930.0741518683</v>
+        <v>842370.2013493704</v>
       </c>
     </row>
     <row r="11">
@@ -1369,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>13.26313419174921</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>15.05805425947912</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="W11" t="n">
         <v>15.05805425947912</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>13.26313419174921</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>15.05805425947912</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,64 +1460,64 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>15.05805425947912</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
+        <v>15.05805425947912</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>13.26313419174921</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>15.05805425947912</v>
-      </c>
-      <c r="V12" t="n">
-        <v>15.05805425947912</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="U13" t="n">
         <v>15.05805425947912</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.26313419174921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="T14" t="n">
+        <v>13.26313419174921</v>
+      </c>
+      <c r="U14" t="n">
         <v>15.05805425947912</v>
       </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.26313419174921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,52 +1700,52 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>15.05805425947912</v>
       </c>
-      <c r="H15" t="n">
+      <c r="T15" t="n">
         <v>15.05805425947912</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
       <c r="U15" t="n">
-        <v>13.26313419174921</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="V15" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1770,58 +1770,58 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>13.26313419174921</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15.05805425947912</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>15.05805425947912</v>
       </c>
       <c r="S16" t="n">
         <v>15.05805425947912</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.04668504368034</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>18.21830727030011</v>
       </c>
       <c r="V17" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>18.21830727030011</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2007,17 +2007,17 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>18.21830727030011</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="T20" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,17 +2168,17 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>18.21830727030011</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>18.21830727030011</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="V22" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="F23" t="n">
-        <v>21.01808531142683</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>21.01808531142684</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="T23" t="n">
-        <v>23.86249467691513</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>23.86249467691513</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2399,20 +2399,20 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>21.01808531142683</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>23.86249467691513</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>21.01808531142684</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>23.86249467691513</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>23.86249467691513</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>23.86249467691513</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>23.86249467691513</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>21.01808531142684</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>21.01808531142684</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>23.86249467691513</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>21.01808531142684</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="T26" t="n">
         <v>23.86249467691512</v>
@@ -2614,7 +2614,7 @@
         <v>23.86249467691512</v>
       </c>
       <c r="V26" t="n">
-        <v>23.86249467691512</v>
+        <v>21.01808531142683</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>23.86249467691512</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="n">
-        <v>21.01808531142684</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>21.01808531142683</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>23.86249467691512</v>
       </c>
       <c r="X27" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>21.01808531142684</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>23.86249467691512</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>23.86249467691512</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>21.01808531142683</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>21.01808531142684</v>
       </c>
       <c r="I29" t="n">
-        <v>21.65122101284321</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>23.86249467691512</v>
       </c>
       <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>23.86249467691512</v>
       </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>23.22935897549874</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>21.01808531142683</v>
+        <v>21.01808531142684</v>
       </c>
       <c r="V30" t="n">
         <v>23.86249467691512</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>21.01808531142684</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,58 +2967,58 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>23.86249467691512</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>23.86249467691512</v>
-      </c>
-      <c r="S31" t="n">
-        <v>23.86249467691512</v>
-      </c>
-      <c r="T31" t="n">
-        <v>21.01808531142683</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,49 +3049,49 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
         <v>21.01808531142684</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>23.86249467691512</v>
-      </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>23.86249467691512</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3116,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>21.01808531142684</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>21.01808531142684</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>23.86249467691512</v>
       </c>
       <c r="X33" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3186,76 +3186,76 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23.86249467691512</v>
+      </c>
+      <c r="E34" t="n">
+        <v>23.86249467691512</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>21.01808531142684</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>23.86249467691512</v>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
       <c r="W34" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.86249467691511</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="D35" t="n">
-        <v>23.86249467691511</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>21.01808531142683</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.01808531142684</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>23.86249467691511</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3356,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>23.86249467691511</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>23.86249467691511</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>23.86249467691511</v>
+        <v>21.01808531142684</v>
       </c>
       <c r="T36" t="n">
-        <v>21.01808531142683</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>23.86249467691511</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>23.86249467691511</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>21.01808531142684</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>21.01808531142683</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>23.86249467691511</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>23.86249467691512</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>21.01808531142683</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>21.01808531142684</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,64 +3581,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
         <v>23.86249467691512</v>
       </c>
-      <c r="E39" t="n">
-        <v>23.86249467691512</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>21.01808531142684</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
       <c r="U39" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>21.01808531142683</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.01808531142683</v>
       </c>
       <c r="S40" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>21.01808531142684</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>23.86249467691512</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>23.86249467691512</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>21.01808531142683</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="U41" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>21.01808531142683</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3827,58 +3827,58 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="G42" t="n">
+        <v>23.86249467691512</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>21.01808531142683</v>
       </c>
-      <c r="H42" t="n">
-        <v>23.86249467691512</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>23.86249467691512</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
       <c r="V42" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>23.86249467691512</v>
+        <v>21.01808531142683</v>
       </c>
       <c r="S43" t="n">
         <v>23.86249467691512</v>
       </c>
       <c r="T43" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>21.01808531142683</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>23.87156873333173</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>21.01808531142684</v>
       </c>
       <c r="U44" t="n">
-        <v>27.10214433847837</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="V44" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>23.87156873333175</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>21.01808531142684</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="I46" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>23.87156873333173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>21.01808531142684</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.81190540260513</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C11" t="n">
-        <v>29.81190540260513</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D11" t="n">
-        <v>29.81190540260513</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E11" t="n">
-        <v>29.81190540260513</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F11" t="n">
-        <v>14.60174958494945</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G11" t="n">
-        <v>14.60174958494945</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H11" t="n">
         <v>1.20464434075833</v>
@@ -5044,16 +5044,16 @@
         <v>1.20464434075833</v>
       </c>
       <c r="K11" t="n">
-        <v>3.442330717834863</v>
+        <v>3.44233071783488</v>
       </c>
       <c r="L11" t="n">
-        <v>12.21491484027811</v>
+        <v>12.21491484027814</v>
       </c>
       <c r="M11" t="n">
         <v>27.12238855716245</v>
       </c>
       <c r="N11" t="n">
-        <v>42.02986227404678</v>
+        <v>42.02986227404679</v>
       </c>
       <c r="O11" t="n">
         <v>54.87532469310607</v>
@@ -5068,25 +5068,25 @@
         <v>60.2322170379165</v>
       </c>
       <c r="S11" t="n">
-        <v>60.2322170379165</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="T11" t="n">
-        <v>60.2322170379165</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="U11" t="n">
-        <v>45.02206122026082</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="V11" t="n">
-        <v>45.02206122026082</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="W11" t="n">
-        <v>45.02206122026082</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="X11" t="n">
-        <v>45.02206122026082</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="Y11" t="n">
-        <v>45.02206122026082</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29.81190540260513</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="C12" t="n">
-        <v>29.81190540260513</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="D12" t="n">
-        <v>29.81190540260513</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="E12" t="n">
-        <v>29.81190540260513</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="F12" t="n">
-        <v>14.60174958494945</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="G12" t="n">
-        <v>1.20464434075833</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="H12" t="n">
         <v>1.20464434075833</v>
@@ -5123,19 +5123,19 @@
         <v>1.20464434075833</v>
       </c>
       <c r="K12" t="n">
-        <v>4.598115868451894</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L12" t="n">
-        <v>16.68847005554572</v>
+        <v>13.29499852785217</v>
       </c>
       <c r="M12" t="n">
-        <v>30.59139443117061</v>
+        <v>21.90820629660674</v>
       </c>
       <c r="N12" t="n">
-        <v>45.49886814805494</v>
+        <v>36.81568001349108</v>
       </c>
       <c r="O12" t="n">
-        <v>60.2322170379165</v>
+        <v>51.54902890335264</v>
       </c>
       <c r="P12" t="n">
         <v>60.2322170379165</v>
@@ -5150,22 +5150,22 @@
         <v>60.2322170379165</v>
       </c>
       <c r="T12" t="n">
-        <v>60.2322170379165</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="U12" t="n">
-        <v>45.02206122026082</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="V12" t="n">
-        <v>29.81190540260513</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="W12" t="n">
-        <v>29.81190540260513</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="X12" t="n">
-        <v>29.81190540260513</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.81190540260513</v>
+        <v>31.62495597606969</v>
       </c>
     </row>
     <row r="13">
@@ -5217,7 +5217,7 @@
         <v>45.32474332103217</v>
       </c>
       <c r="P13" t="n">
-        <v>45.32474332103217</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Q13" t="n">
         <v>60.2322170379165</v>
@@ -5229,19 +5229,19 @@
         <v>45.02206122026082</v>
       </c>
       <c r="T13" t="n">
-        <v>45.02206122026082</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="U13" t="n">
-        <v>29.81190540260513</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="V13" t="n">
-        <v>14.60174958494945</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W13" t="n">
-        <v>14.60174958494945</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X13" t="n">
-        <v>14.60174958494945</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y13" t="n">
         <v>1.20464434075833</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.20464434075833</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="C14" t="n">
         <v>1.20464434075833</v>
@@ -5290,10 +5290,10 @@
         <v>27.12238855716245</v>
       </c>
       <c r="N14" t="n">
-        <v>42.02986227404678</v>
+        <v>42.02986227404679</v>
       </c>
       <c r="O14" t="n">
-        <v>54.87532469310606</v>
+        <v>54.87532469310607</v>
       </c>
       <c r="P14" t="n">
         <v>60.2322170379165</v>
@@ -5305,25 +5305,25 @@
         <v>60.2322170379165</v>
       </c>
       <c r="S14" t="n">
-        <v>60.2322170379165</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T14" t="n">
-        <v>45.02206122026082</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="U14" t="n">
-        <v>45.02206122026082</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="V14" t="n">
-        <v>29.81190540260513</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="W14" t="n">
-        <v>29.81190540260513</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="X14" t="n">
-        <v>14.60174958494945</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.20464434075833</v>
+        <v>16.41480015841401</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.62495597606969</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="C15" t="n">
-        <v>31.62495597606969</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="D15" t="n">
-        <v>31.62495597606969</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E15" t="n">
-        <v>31.62495597606969</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F15" t="n">
-        <v>31.62495597606969</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G15" t="n">
-        <v>16.41480015841401</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H15" t="n">
         <v>1.20464434075833</v>
@@ -5366,10 +5366,10 @@
         <v>16.68847005554573</v>
       </c>
       <c r="M15" t="n">
-        <v>31.59594377243006</v>
+        <v>21.90820629660674</v>
       </c>
       <c r="N15" t="n">
-        <v>46.5034174893144</v>
+        <v>36.81568001349108</v>
       </c>
       <c r="O15" t="n">
         <v>51.54902890335264</v>
@@ -5384,25 +5384,25 @@
         <v>60.2322170379165</v>
       </c>
       <c r="S15" t="n">
-        <v>60.2322170379165</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T15" t="n">
-        <v>60.2322170379165</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="U15" t="n">
-        <v>46.83511179372537</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="V15" t="n">
-        <v>31.62495597606969</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="W15" t="n">
-        <v>31.62495597606969</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="X15" t="n">
-        <v>31.62495597606969</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="Y15" t="n">
-        <v>31.62495597606969</v>
+        <v>14.60174958494945</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.81190540260513</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C16" t="n">
-        <v>29.81190540260513</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D16" t="n">
-        <v>16.41480015841401</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E16" t="n">
-        <v>16.41480015841401</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F16" t="n">
-        <v>16.41480015841401</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G16" t="n">
         <v>1.20464434075833</v>
@@ -5436,52 +5436,52 @@
         <v>1.20464434075833</v>
       </c>
       <c r="J16" t="n">
-        <v>1.20464434075833</v>
+        <v>16.11211805764266</v>
       </c>
       <c r="K16" t="n">
-        <v>15.5097958872635</v>
+        <v>31.01959177452699</v>
       </c>
       <c r="L16" t="n">
-        <v>15.5097958872635</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="M16" t="n">
-        <v>30.41726960414783</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="N16" t="n">
         <v>45.32474332103217</v>
       </c>
       <c r="O16" t="n">
-        <v>60.2322170379165</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="P16" t="n">
-        <v>60.2322170379165</v>
+        <v>45.32474332103217</v>
       </c>
       <c r="Q16" t="n">
         <v>60.2322170379165</v>
       </c>
       <c r="R16" t="n">
-        <v>45.02206122026082</v>
+        <v>46.83511179372537</v>
       </c>
       <c r="S16" t="n">
-        <v>29.81190540260513</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="T16" t="n">
-        <v>29.81190540260513</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="U16" t="n">
-        <v>29.81190540260513</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V16" t="n">
-        <v>29.81190540260513</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W16" t="n">
-        <v>29.81190540260513</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X16" t="n">
-        <v>29.81190540260513</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.81190540260513</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.457464581624009</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="C17" t="n">
-        <v>1.457464581624009</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="D17" t="n">
-        <v>1.457464581624009</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="E17" t="n">
-        <v>1.457464581624009</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="F17" t="n">
-        <v>1.457464581624009</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="G17" t="n">
-        <v>1.457464581624009</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="H17" t="n">
-        <v>1.457464581624009</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="I17" t="n">
         <v>1.457464581624009</v>
@@ -5518,13 +5518,13 @@
         <v>1.457464581624009</v>
       </c>
       <c r="K17" t="n">
-        <v>5.21909947599225</v>
+        <v>5.219099475992287</v>
       </c>
       <c r="L17" t="n">
-        <v>15.8822764908818</v>
+        <v>15.88227649088184</v>
       </c>
       <c r="M17" t="n">
-        <v>32.8933990788639</v>
+        <v>32.89339907886392</v>
       </c>
       <c r="N17" t="n">
         <v>50.92952327646101</v>
@@ -5542,25 +5542,25 @@
         <v>72.87322908120045</v>
       </c>
       <c r="S17" t="n">
-        <v>56.66445630980617</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="T17" t="n">
-        <v>56.66445630980617</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="U17" t="n">
-        <v>38.26212573374545</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="V17" t="n">
-        <v>19.85979515768473</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="W17" t="n">
-        <v>1.457464581624009</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="X17" t="n">
-        <v>1.457464581624009</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.457464581624009</v>
+        <v>36.06856792907901</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.457464581624009</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="C18" t="n">
-        <v>1.457464581624009</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="D18" t="n">
-        <v>1.457464581624009</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="E18" t="n">
-        <v>1.457464581624009</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="F18" t="n">
-        <v>1.457464581624009</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="G18" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="H18" t="n">
         <v>1.457464581624009</v>
@@ -5600,16 +5600,16 @@
         <v>5.886021080118655</v>
       </c>
       <c r="L18" t="n">
-        <v>19.36817474787379</v>
+        <v>10.63528474396711</v>
       </c>
       <c r="M18" t="n">
-        <v>37.40429894547091</v>
+        <v>28.67140894156422</v>
       </c>
       <c r="N18" t="n">
-        <v>55.44042314306802</v>
+        <v>46.70753313916133</v>
       </c>
       <c r="O18" t="n">
-        <v>71.69888962564616</v>
+        <v>62.96599962173946</v>
       </c>
       <c r="P18" t="n">
         <v>72.87322908120045</v>
@@ -5621,25 +5621,25 @@
         <v>72.87322908120045</v>
       </c>
       <c r="S18" t="n">
-        <v>54.47089850513973</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="T18" t="n">
-        <v>54.47089850513973</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="U18" t="n">
-        <v>36.06856792907901</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="V18" t="n">
-        <v>17.66623735301829</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="W18" t="n">
-        <v>1.457464581624009</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="X18" t="n">
-        <v>1.457464581624009</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.457464581624009</v>
+        <v>56.66445630980617</v>
       </c>
     </row>
     <row r="19">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.66445630980617</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="C19" t="n">
-        <v>56.66445630980617</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="D19" t="n">
         <v>38.26212573374545</v>
@@ -5661,7 +5661,7 @@
         <v>19.85979515768473</v>
       </c>
       <c r="F19" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="G19" t="n">
         <v>1.457464581624009</v>
@@ -5673,25 +5673,25 @@
         <v>1.457464581624009</v>
       </c>
       <c r="J19" t="n">
-        <v>1.457464581624009</v>
+        <v>19.49358877922112</v>
       </c>
       <c r="K19" t="n">
         <v>19.49358877922112</v>
       </c>
       <c r="L19" t="n">
-        <v>36.80098068600623</v>
+        <v>19.49358877922112</v>
       </c>
       <c r="M19" t="n">
+        <v>19.49358877922112</v>
+      </c>
+      <c r="N19" t="n">
+        <v>37.52971297681823</v>
+      </c>
+      <c r="O19" t="n">
+        <v>37.52971297681823</v>
+      </c>
+      <c r="P19" t="n">
         <v>54.83710488360334</v>
-      </c>
-      <c r="N19" t="n">
-        <v>72.87322908120045</v>
-      </c>
-      <c r="O19" t="n">
-        <v>72.87322908120045</v>
-      </c>
-      <c r="P19" t="n">
-        <v>72.87322908120045</v>
       </c>
       <c r="Q19" t="n">
         <v>72.87322908120045</v>
@@ -5703,22 +5703,22 @@
         <v>72.87322908120045</v>
       </c>
       <c r="T19" t="n">
-        <v>72.87322908120045</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="U19" t="n">
-        <v>72.87322908120045</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="V19" t="n">
-        <v>72.87322908120045</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="W19" t="n">
-        <v>72.87322908120045</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="X19" t="n">
-        <v>56.66445630980617</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="Y19" t="n">
-        <v>56.66445630980617</v>
+        <v>38.26212573374545</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="C20" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="D20" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="E20" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="F20" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="G20" t="n">
         <v>1.457464581624009</v>
@@ -5755,19 +5755,19 @@
         <v>1.457464581624009</v>
       </c>
       <c r="K20" t="n">
-        <v>5.219099475992271</v>
+        <v>5.219099475992266</v>
       </c>
       <c r="L20" t="n">
-        <v>15.88227649088182</v>
+        <v>15.88227649088181</v>
       </c>
       <c r="M20" t="n">
-        <v>32.89339907886392</v>
+        <v>32.89339907886389</v>
       </c>
       <c r="N20" t="n">
         <v>50.92952327646103</v>
       </c>
       <c r="O20" t="n">
-        <v>65.79354395927304</v>
+        <v>65.79354395927301</v>
       </c>
       <c r="P20" t="n">
         <v>72.87322908120045</v>
@@ -5779,25 +5779,25 @@
         <v>72.87322908120045</v>
       </c>
       <c r="S20" t="n">
-        <v>72.87322908120045</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="T20" t="n">
         <v>54.47089850513973</v>
       </c>
       <c r="U20" t="n">
-        <v>54.47089850513973</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="V20" t="n">
-        <v>54.47089850513973</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="W20" t="n">
-        <v>36.06856792907901</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="X20" t="n">
-        <v>17.66623735301829</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
     </row>
     <row r="21">
@@ -5816,13 +5816,13 @@
         <v>19.85979515768473</v>
       </c>
       <c r="E21" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="F21" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="G21" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="H21" t="n">
         <v>1.457464581624009</v>
@@ -5834,19 +5834,19 @@
         <v>1.457464581624009</v>
       </c>
       <c r="K21" t="n">
-        <v>5.886021080118655</v>
+        <v>5.886021080118652</v>
       </c>
       <c r="L21" t="n">
-        <v>19.36817474787379</v>
+        <v>19.36817474787378</v>
       </c>
       <c r="M21" t="n">
-        <v>37.40429894547091</v>
+        <v>28.67140894156423</v>
       </c>
       <c r="N21" t="n">
-        <v>55.44042314306802</v>
+        <v>46.70753313916134</v>
       </c>
       <c r="O21" t="n">
-        <v>71.69888962564616</v>
+        <v>62.96599962173947</v>
       </c>
       <c r="P21" t="n">
         <v>72.87322908120045</v>
@@ -5858,25 +5858,25 @@
         <v>72.87322908120045</v>
       </c>
       <c r="S21" t="n">
-        <v>56.66445630980617</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="T21" t="n">
-        <v>56.66445630980617</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="U21" t="n">
-        <v>56.66445630980617</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="V21" t="n">
-        <v>56.66445630980617</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="W21" t="n">
-        <v>38.26212573374545</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="X21" t="n">
-        <v>19.85979515768473</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.85979515768473</v>
+        <v>36.06856792907901</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>56.66445630980617</v>
+      </c>
+      <c r="C22" t="n">
+        <v>38.26212573374545</v>
+      </c>
+      <c r="D22" t="n">
+        <v>38.26212573374545</v>
+      </c>
+      <c r="E22" t="n">
         <v>19.85979515768473</v>
       </c>
-      <c r="C22" t="n">
+      <c r="F22" t="n">
         <v>19.85979515768473</v>
       </c>
-      <c r="D22" t="n">
+      <c r="G22" t="n">
         <v>19.85979515768473</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.457464581624009</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.457464581624009</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.457464581624009</v>
       </c>
       <c r="H22" t="n">
         <v>1.457464581624009</v>
@@ -5910,10 +5910,10 @@
         <v>1.457464581624009</v>
       </c>
       <c r="J22" t="n">
-        <v>1.457464581624009</v>
+        <v>19.49358877922112</v>
       </c>
       <c r="K22" t="n">
-        <v>19.49358877922112</v>
+        <v>37.52971297681823</v>
       </c>
       <c r="L22" t="n">
         <v>37.52971297681823</v>
@@ -5925,10 +5925,10 @@
         <v>38.12478756462691</v>
       </c>
       <c r="O22" t="n">
+        <v>38.12478756462691</v>
+      </c>
+      <c r="P22" t="n">
         <v>54.83710488360334</v>
-      </c>
-      <c r="P22" t="n">
-        <v>72.87322908120045</v>
       </c>
       <c r="Q22" t="n">
         <v>72.87322908120045</v>
@@ -5943,19 +5943,19 @@
         <v>72.87322908120045</v>
       </c>
       <c r="U22" t="n">
-        <v>54.47089850513973</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="V22" t="n">
-        <v>38.26212573374545</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="W22" t="n">
-        <v>38.26212573374545</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="X22" t="n">
-        <v>19.85979515768473</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.85979515768473</v>
+        <v>56.66445630980617</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23.13938877761466</v>
+        <v>47.24291875429662</v>
       </c>
       <c r="C23" t="n">
-        <v>23.13938877761466</v>
+        <v>47.24291875429662</v>
       </c>
       <c r="D23" t="n">
-        <v>23.13938877761466</v>
+        <v>47.24291875429662</v>
       </c>
       <c r="E23" t="n">
-        <v>23.13938877761466</v>
+        <v>23.13938877761467</v>
       </c>
       <c r="F23" t="n">
-        <v>1.90899957415321</v>
+        <v>23.13938877761467</v>
       </c>
       <c r="G23" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="H23" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="I23" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="J23" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="K23" t="n">
-        <v>8.629045391172369</v>
+        <v>8.629045391172394</v>
       </c>
       <c r="L23" t="n">
-        <v>22.96239275619887</v>
+        <v>22.9623927561989</v>
       </c>
       <c r="M23" t="n">
-        <v>44.05728702482659</v>
+        <v>44.05728702482664</v>
       </c>
       <c r="N23" t="n">
-        <v>66.243262598314</v>
+        <v>66.24326259831408</v>
       </c>
       <c r="O23" t="n">
         <v>85.02587025944865</v>
       </c>
       <c r="P23" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766053</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766053</v>
       </c>
       <c r="R23" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766053</v>
       </c>
       <c r="S23" t="n">
-        <v>95.44997870766052</v>
+        <v>71.34644873097858</v>
       </c>
       <c r="T23" t="n">
-        <v>71.34644873097857</v>
+        <v>71.34644873097858</v>
       </c>
       <c r="U23" t="n">
-        <v>47.24291875429661</v>
+        <v>71.34644873097858</v>
       </c>
       <c r="V23" t="n">
-        <v>47.24291875429661</v>
+        <v>71.34644873097858</v>
       </c>
       <c r="W23" t="n">
-        <v>47.24291875429661</v>
+        <v>71.34644873097858</v>
       </c>
       <c r="X23" t="n">
-        <v>47.24291875429661</v>
+        <v>71.34644873097858</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.24291875429661</v>
+        <v>71.34644873097858</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.24291875429661</v>
+        <v>26.01252955083516</v>
       </c>
       <c r="C24" t="n">
         <v>26.01252955083516</v>
       </c>
       <c r="D24" t="n">
-        <v>1.90899957415321</v>
+        <v>26.01252955083516</v>
       </c>
       <c r="E24" t="n">
-        <v>1.90899957415321</v>
+        <v>26.01252955083516</v>
       </c>
       <c r="F24" t="n">
-        <v>1.90899957415321</v>
+        <v>26.01252955083516</v>
       </c>
       <c r="G24" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="H24" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="I24" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="J24" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="K24" t="n">
-        <v>8.34694592325231</v>
+        <v>8.346945923252314</v>
       </c>
       <c r="L24" t="n">
-        <v>24.53097221925455</v>
+        <v>24.53097221925456</v>
       </c>
       <c r="M24" t="n">
-        <v>46.56245863347759</v>
+        <v>46.5624586334776</v>
       </c>
       <c r="N24" t="n">
-        <v>70.18632836362357</v>
+        <v>63.94739528045541</v>
       </c>
       <c r="O24" t="n">
-        <v>89.40547527170459</v>
+        <v>83.16654218853644</v>
       </c>
       <c r="P24" t="n">
-        <v>95.35069610950771</v>
+        <v>95.44997870766053</v>
       </c>
       <c r="Q24" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766053</v>
       </c>
       <c r="R24" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766053</v>
       </c>
       <c r="S24" t="n">
-        <v>95.44997870766052</v>
+        <v>71.34644873097858</v>
       </c>
       <c r="T24" t="n">
-        <v>95.44997870766052</v>
+        <v>47.24291875429662</v>
       </c>
       <c r="U24" t="n">
-        <v>95.44997870766052</v>
+        <v>26.01252955083516</v>
       </c>
       <c r="V24" t="n">
-        <v>95.44997870766052</v>
+        <v>26.01252955083516</v>
       </c>
       <c r="W24" t="n">
-        <v>71.34644873097857</v>
+        <v>26.01252955083516</v>
       </c>
       <c r="X24" t="n">
-        <v>47.24291875429661</v>
+        <v>26.01252955083516</v>
       </c>
       <c r="Y24" t="n">
-        <v>47.24291875429661</v>
+        <v>26.01252955083516</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.11605952751711</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="C25" t="n">
-        <v>50.11605952751711</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="D25" t="n">
-        <v>50.11605952751711</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="E25" t="n">
-        <v>50.11605952751711</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="F25" t="n">
-        <v>50.11605952751711</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="G25" t="n">
+        <v>1.908999574153211</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.908999574153211</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.908999574153211</v>
+      </c>
+      <c r="J25" t="n">
+        <v>25.53286930429919</v>
+      </c>
+      <c r="K25" t="n">
+        <v>49.15673903444518</v>
+      </c>
+      <c r="L25" t="n">
+        <v>49.54320764104973</v>
+      </c>
+      <c r="M25" t="n">
+        <v>50.48015558962116</v>
+      </c>
+      <c r="N25" t="n">
+        <v>52.67167296987373</v>
+      </c>
+      <c r="O25" t="n">
+        <v>52.67167296987373</v>
+      </c>
+      <c r="P25" t="n">
+        <v>71.82610897751455</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>95.44997870766053</v>
+      </c>
+      <c r="R25" t="n">
+        <v>71.34644873097858</v>
+      </c>
+      <c r="S25" t="n">
+        <v>71.34644873097858</v>
+      </c>
+      <c r="T25" t="n">
+        <v>71.34644873097858</v>
+      </c>
+      <c r="U25" t="n">
+        <v>50.11605952751712</v>
+      </c>
+      <c r="V25" t="n">
+        <v>50.11605952751712</v>
+      </c>
+      <c r="W25" t="n">
+        <v>50.11605952751712</v>
+      </c>
+      <c r="X25" t="n">
+        <v>50.11605952751712</v>
+      </c>
+      <c r="Y25" t="n">
         <v>26.01252955083516</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.90899957415321</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.90899957415321</v>
-      </c>
-      <c r="J25" t="n">
-        <v>22.00038353036545</v>
-      </c>
-      <c r="K25" t="n">
-        <v>22.00038353036545</v>
-      </c>
-      <c r="L25" t="n">
-        <v>22.38685213697</v>
-      </c>
-      <c r="M25" t="n">
-        <v>46.01072186711598</v>
-      </c>
-      <c r="N25" t="n">
-        <v>48.20223924736855</v>
-      </c>
-      <c r="O25" t="n">
-        <v>71.82610897751454</v>
-      </c>
-      <c r="P25" t="n">
-        <v>71.82610897751454</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>95.44997870766052</v>
-      </c>
-      <c r="R25" t="n">
-        <v>71.34644873097857</v>
-      </c>
-      <c r="S25" t="n">
-        <v>71.34644873097857</v>
-      </c>
-      <c r="T25" t="n">
-        <v>71.34644873097857</v>
-      </c>
-      <c r="U25" t="n">
-        <v>71.34644873097857</v>
-      </c>
-      <c r="V25" t="n">
-        <v>71.34644873097857</v>
-      </c>
-      <c r="W25" t="n">
-        <v>50.11605952751711</v>
-      </c>
-      <c r="X25" t="n">
-        <v>50.11605952751711</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>50.11605952751711</v>
       </c>
     </row>
     <row r="26">
@@ -6229,37 +6229,37 @@
         <v>1.90899957415321</v>
       </c>
       <c r="K26" t="n">
-        <v>8.629045391172383</v>
+        <v>8.629045391172404</v>
       </c>
       <c r="L26" t="n">
-        <v>22.96239275619887</v>
+        <v>22.96239275619891</v>
       </c>
       <c r="M26" t="n">
-        <v>44.05728702482659</v>
+        <v>44.0572870248266</v>
       </c>
       <c r="N26" t="n">
         <v>66.24326259831402</v>
       </c>
       <c r="O26" t="n">
-        <v>85.02587025944862</v>
+        <v>85.0258702594486</v>
       </c>
       <c r="P26" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="Q26" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="R26" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="S26" t="n">
-        <v>74.21958950419904</v>
+        <v>71.34644873097854</v>
       </c>
       <c r="T26" t="n">
-        <v>50.11605952751709</v>
+        <v>47.2429187542966</v>
       </c>
       <c r="U26" t="n">
-        <v>26.01252955083515</v>
+        <v>23.13938877761466</v>
       </c>
       <c r="V26" t="n">
         <v>1.90899957415321</v>
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.24291875429661</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="C27" t="n">
-        <v>23.13938877761467</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="D27" t="n">
-        <v>23.13938877761467</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="E27" t="n">
-        <v>23.13938877761467</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="F27" t="n">
-        <v>23.13938877761467</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="G27" t="n">
         <v>1.90899957415321</v>
@@ -6308,49 +6308,49 @@
         <v>1.90899957415321</v>
       </c>
       <c r="K27" t="n">
-        <v>2.108012840084136</v>
+        <v>8.346945923252312</v>
       </c>
       <c r="L27" t="n">
-        <v>18.29203913608638</v>
+        <v>24.53097221925456</v>
       </c>
       <c r="M27" t="n">
-        <v>40.32352555030941</v>
+        <v>46.5624586334776</v>
       </c>
       <c r="N27" t="n">
-        <v>63.94739528045538</v>
+        <v>70.18632836362357</v>
       </c>
       <c r="O27" t="n">
-        <v>83.1665421885364</v>
+        <v>89.4054752717046</v>
       </c>
       <c r="P27" t="n">
-        <v>95.44997870766049</v>
+        <v>95.35069610950767</v>
       </c>
       <c r="Q27" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="R27" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="S27" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="T27" t="n">
-        <v>95.44997870766049</v>
+        <v>71.34644873097854</v>
       </c>
       <c r="U27" t="n">
-        <v>95.44997870766049</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="V27" t="n">
-        <v>95.44997870766049</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="W27" t="n">
-        <v>71.34644873097855</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="X27" t="n">
-        <v>47.24291875429661</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="Y27" t="n">
-        <v>47.24291875429661</v>
+        <v>26.01252955083515</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.24291875429661</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="C28" t="n">
-        <v>47.24291875429661</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="D28" t="n">
-        <v>47.24291875429661</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="E28" t="n">
-        <v>47.24291875429661</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="F28" t="n">
+        <v>50.11605952751709</v>
+      </c>
+      <c r="G28" t="n">
+        <v>50.11605952751709</v>
+      </c>
+      <c r="H28" t="n">
         <v>26.01252955083515</v>
-      </c>
-      <c r="G28" t="n">
-        <v>26.01252955083515</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1.90899957415321</v>
       </c>
       <c r="I28" t="n">
         <v>1.90899957415321</v>
       </c>
       <c r="J28" t="n">
-        <v>22.00038353036546</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="K28" t="n">
-        <v>45.62425326051143</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="L28" t="n">
-        <v>46.01072186711598</v>
+        <v>25.53286930429918</v>
       </c>
       <c r="M28" t="n">
-        <v>69.63459159726195</v>
+        <v>26.4698172528706</v>
       </c>
       <c r="N28" t="n">
-        <v>71.82610897751452</v>
+        <v>28.66133463312318</v>
       </c>
       <c r="O28" t="n">
-        <v>71.82610897751452</v>
+        <v>52.28520436326914</v>
       </c>
       <c r="P28" t="n">
-        <v>71.82610897751452</v>
+        <v>71.82610897751451</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="R28" t="n">
-        <v>71.34644873097855</v>
+        <v>71.34644873097854</v>
       </c>
       <c r="S28" t="n">
-        <v>71.34644873097855</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="T28" t="n">
-        <v>71.34644873097855</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="U28" t="n">
-        <v>47.24291875429661</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="V28" t="n">
-        <v>47.24291875429661</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="W28" t="n">
-        <v>47.24291875429661</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="X28" t="n">
-        <v>47.24291875429661</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.24291875429661</v>
+        <v>50.11605952751709</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23.77891978914635</v>
+        <v>47.24291875429661</v>
       </c>
       <c r="C29" t="n">
-        <v>23.77891978914635</v>
+        <v>23.13938877761467</v>
       </c>
       <c r="D29" t="n">
-        <v>23.77891978914635</v>
+        <v>23.13938877761467</v>
       </c>
       <c r="E29" t="n">
-        <v>23.77891978914635</v>
+        <v>23.13938877761467</v>
       </c>
       <c r="F29" t="n">
-        <v>23.77891978914635</v>
+        <v>23.13938877761467</v>
       </c>
       <c r="G29" t="n">
-        <v>23.77891978914635</v>
+        <v>23.13938877761467</v>
       </c>
       <c r="H29" t="n">
-        <v>23.77891978914635</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="I29" t="n">
         <v>1.90899957415321</v>
@@ -6475,40 +6475,40 @@
         <v>44.05728702482661</v>
       </c>
       <c r="N29" t="n">
-        <v>66.24326259831403</v>
+        <v>66.24326259831402</v>
       </c>
       <c r="O29" t="n">
-        <v>85.0258702594486</v>
+        <v>85.02587025944861</v>
       </c>
       <c r="P29" t="n">
-        <v>95.44997870766048</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="Q29" t="n">
-        <v>95.44997870766048</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="R29" t="n">
-        <v>95.44997870766048</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="S29" t="n">
-        <v>71.34644873097854</v>
+        <v>71.34644873097855</v>
       </c>
       <c r="T29" t="n">
-        <v>47.2429187542966</v>
+        <v>71.34644873097855</v>
       </c>
       <c r="U29" t="n">
-        <v>47.2429187542966</v>
+        <v>71.34644873097855</v>
       </c>
       <c r="V29" t="n">
-        <v>47.2429187542966</v>
+        <v>71.34644873097855</v>
       </c>
       <c r="W29" t="n">
-        <v>47.2429187542966</v>
+        <v>47.24291875429661</v>
       </c>
       <c r="X29" t="n">
-        <v>23.77891978914635</v>
+        <v>47.24291875429661</v>
       </c>
       <c r="Y29" t="n">
-        <v>23.77891978914635</v>
+        <v>47.24291875429661</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26.01252955083515</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="C30" t="n">
-        <v>26.01252955083515</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="D30" t="n">
-        <v>26.01252955083515</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="E30" t="n">
-        <v>26.01252955083515</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="F30" t="n">
-        <v>26.01252955083515</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="G30" t="n">
         <v>1.90899957415321</v>
@@ -6545,49 +6545,49 @@
         <v>1.90899957415321</v>
       </c>
       <c r="K30" t="n">
-        <v>2.00873024193131</v>
+        <v>8.34694592325231</v>
       </c>
       <c r="L30" t="n">
-        <v>18.19275653793355</v>
+        <v>24.53097221925455</v>
       </c>
       <c r="M30" t="n">
-        <v>40.22424295215659</v>
+        <v>46.56245863347759</v>
       </c>
       <c r="N30" t="n">
-        <v>63.84811268230256</v>
+        <v>70.18632836362356</v>
       </c>
       <c r="O30" t="n">
-        <v>83.06725959038357</v>
+        <v>83.0672595903836</v>
       </c>
       <c r="P30" t="n">
-        <v>95.35069610950767</v>
+        <v>95.35069610950768</v>
       </c>
       <c r="Q30" t="n">
-        <v>95.44997870766048</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="R30" t="n">
-        <v>95.44997870766048</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="S30" t="n">
-        <v>95.44997870766048</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="T30" t="n">
-        <v>71.34644873097854</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="U30" t="n">
+        <v>74.21958950419904</v>
+      </c>
+      <c r="V30" t="n">
         <v>50.11605952751709</v>
-      </c>
-      <c r="V30" t="n">
-        <v>26.01252955083515</v>
       </c>
       <c r="W30" t="n">
         <v>26.01252955083515</v>
       </c>
       <c r="X30" t="n">
-        <v>26.01252955083515</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="Y30" t="n">
-        <v>26.01252955083515</v>
+        <v>1.90899957415321</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26.01252955083515</v>
+        <v>23.13938877761467</v>
       </c>
       <c r="C31" t="n">
-        <v>26.01252955083515</v>
+        <v>23.13938877761467</v>
       </c>
       <c r="D31" t="n">
-        <v>26.01252955083515</v>
+        <v>23.13938877761467</v>
       </c>
       <c r="E31" t="n">
-        <v>26.01252955083515</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="F31" t="n">
-        <v>26.01252955083515</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="G31" t="n">
-        <v>26.01252955083515</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="H31" t="n">
         <v>1.90899957415321</v>
@@ -6621,52 +6621,52 @@
         <v>1.90899957415321</v>
       </c>
       <c r="J31" t="n">
-        <v>22.00038353036545</v>
+        <v>25.53286930429918</v>
       </c>
       <c r="K31" t="n">
-        <v>45.62425326051142</v>
+        <v>49.15673903444515</v>
       </c>
       <c r="L31" t="n">
-        <v>46.01072186711596</v>
+        <v>49.5432076410497</v>
       </c>
       <c r="M31" t="n">
-        <v>69.63459159726193</v>
+        <v>50.48015558962111</v>
       </c>
       <c r="N31" t="n">
-        <v>71.82610897751451</v>
+        <v>52.67167296987369</v>
       </c>
       <c r="O31" t="n">
-        <v>71.82610897751451</v>
+        <v>71.82610897751452</v>
       </c>
       <c r="P31" t="n">
-        <v>71.82610897751451</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.44997870766048</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="R31" t="n">
-        <v>71.34644873097854</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="S31" t="n">
-        <v>47.2429187542966</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="T31" t="n">
-        <v>26.01252955083515</v>
+        <v>71.34644873097855</v>
       </c>
       <c r="U31" t="n">
-        <v>26.01252955083515</v>
+        <v>71.34644873097855</v>
       </c>
       <c r="V31" t="n">
-        <v>26.01252955083515</v>
+        <v>71.34644873097855</v>
       </c>
       <c r="W31" t="n">
-        <v>26.01252955083515</v>
+        <v>71.34644873097855</v>
       </c>
       <c r="X31" t="n">
-        <v>26.01252955083515</v>
+        <v>71.34644873097855</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.01252955083515</v>
+        <v>47.24291875429661</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>23.13938877761467</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="C32" t="n">
-        <v>23.13938877761467</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="D32" t="n">
-        <v>23.13938877761467</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="E32" t="n">
-        <v>23.13938877761467</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="F32" t="n">
-        <v>23.13938877761467</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="G32" t="n">
-        <v>23.13938877761467</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="H32" t="n">
-        <v>23.13938877761467</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="I32" t="n">
         <v>1.90899957415321</v>
@@ -6703,13 +6703,13 @@
         <v>1.90899957415321</v>
       </c>
       <c r="K32" t="n">
-        <v>8.629045391172394</v>
+        <v>8.629045391172387</v>
       </c>
       <c r="L32" t="n">
-        <v>22.96239275619889</v>
+        <v>22.96239275619888</v>
       </c>
       <c r="M32" t="n">
-        <v>44.05728702482662</v>
+        <v>44.05728702482661</v>
       </c>
       <c r="N32" t="n">
         <v>66.24326259831405</v>
@@ -6727,25 +6727,25 @@
         <v>95.44997870766049</v>
       </c>
       <c r="S32" t="n">
-        <v>71.34644873097855</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="T32" t="n">
-        <v>71.34644873097855</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="U32" t="n">
-        <v>47.24291875429661</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="V32" t="n">
-        <v>23.13938877761467</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="W32" t="n">
-        <v>23.13938877761467</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="X32" t="n">
-        <v>23.13938877761467</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="Y32" t="n">
-        <v>23.13938877761467</v>
+        <v>26.01252955083515</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="C33" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="D33" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="E33" t="n">
-        <v>1.90899957415321</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="F33" t="n">
-        <v>1.90899957415321</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="G33" t="n">
         <v>1.90899957415321</v>
@@ -6782,22 +6782,22 @@
         <v>1.90899957415321</v>
       </c>
       <c r="K33" t="n">
-        <v>8.34694592325231</v>
+        <v>2.008730241931339</v>
       </c>
       <c r="L33" t="n">
-        <v>24.53097221925455</v>
+        <v>18.19275653793358</v>
       </c>
       <c r="M33" t="n">
-        <v>46.56245863347759</v>
+        <v>40.22424295215662</v>
       </c>
       <c r="N33" t="n">
-        <v>70.18632836362356</v>
+        <v>63.84811268230258</v>
       </c>
       <c r="O33" t="n">
-        <v>89.40547527170457</v>
+        <v>83.0672595903836</v>
       </c>
       <c r="P33" t="n">
-        <v>95.44997870766049</v>
+        <v>95.35069610950768</v>
       </c>
       <c r="Q33" t="n">
         <v>95.44997870766049</v>
@@ -6806,25 +6806,25 @@
         <v>95.44997870766049</v>
       </c>
       <c r="S33" t="n">
-        <v>95.44997870766049</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="T33" t="n">
-        <v>95.44997870766049</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="U33" t="n">
         <v>74.21958950419904</v>
       </c>
       <c r="V33" t="n">
+        <v>74.21958950419904</v>
+      </c>
+      <c r="W33" t="n">
         <v>50.11605952751709</v>
       </c>
-      <c r="W33" t="n">
-        <v>26.01252955083515</v>
-      </c>
       <c r="X33" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.01252955083515</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="C34" t="n">
-        <v>26.01252955083515</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="D34" t="n">
         <v>26.01252955083515</v>
       </c>
       <c r="E34" t="n">
-        <v>26.01252955083515</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="F34" t="n">
         <v>1.90899957415321</v>
@@ -6861,10 +6861,10 @@
         <v>25.53286930429918</v>
       </c>
       <c r="K34" t="n">
-        <v>45.62425326051143</v>
+        <v>49.15673903444515</v>
       </c>
       <c r="L34" t="n">
-        <v>46.01072186711598</v>
+        <v>68.69764364869053</v>
       </c>
       <c r="M34" t="n">
         <v>69.63459159726195</v>
@@ -6882,28 +6882,28 @@
         <v>95.44997870766049</v>
       </c>
       <c r="R34" t="n">
-        <v>95.44997870766049</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="S34" t="n">
-        <v>95.44997870766049</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="T34" t="n">
-        <v>95.44997870766049</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="U34" t="n">
-        <v>95.44997870766049</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="V34" t="n">
-        <v>95.44997870766049</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="W34" t="n">
-        <v>71.34644873097855</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="X34" t="n">
-        <v>71.34644873097855</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.24291875429661</v>
+        <v>50.11605952751709</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.24291875429659</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="C35" t="n">
-        <v>47.24291875429659</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="D35" t="n">
-        <v>23.13938877761466</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="E35" t="n">
-        <v>23.13938877761466</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="F35" t="n">
-        <v>23.13938877761466</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="G35" t="n">
-        <v>1.908999574153209</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="H35" t="n">
-        <v>1.908999574153209</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="I35" t="n">
-        <v>1.908999574153209</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="J35" t="n">
-        <v>1.908999574153209</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="K35" t="n">
-        <v>8.629045391172383</v>
+        <v>8.629045391172387</v>
       </c>
       <c r="L35" t="n">
-        <v>22.96239275619889</v>
+        <v>22.96239275619888</v>
       </c>
       <c r="M35" t="n">
         <v>44.05728702482661</v>
       </c>
       <c r="N35" t="n">
-        <v>66.24326259831402</v>
+        <v>66.24326259831405</v>
       </c>
       <c r="O35" t="n">
-        <v>85.02587025944857</v>
+        <v>85.02587025944861</v>
       </c>
       <c r="P35" t="n">
-        <v>95.44997870766045</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.44997870766045</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="R35" t="n">
-        <v>95.44997870766045</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="S35" t="n">
-        <v>95.44997870766045</v>
+        <v>71.34644873097855</v>
       </c>
       <c r="T35" t="n">
-        <v>95.44997870766045</v>
+        <v>71.34644873097855</v>
       </c>
       <c r="U35" t="n">
-        <v>95.44997870766045</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="V35" t="n">
-        <v>95.44997870766045</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="W35" t="n">
-        <v>95.44997870766045</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="X35" t="n">
-        <v>71.34644873097852</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="Y35" t="n">
-        <v>71.34644873097852</v>
+        <v>50.11605952751709</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>50.11605952751708</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="C36" t="n">
-        <v>50.11605952751708</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="D36" t="n">
-        <v>50.11605952751708</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="E36" t="n">
-        <v>50.11605952751708</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="F36" t="n">
-        <v>26.01252955083514</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="G36" t="n">
-        <v>26.01252955083514</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="H36" t="n">
-        <v>1.908999574153209</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="I36" t="n">
-        <v>1.908999574153209</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="J36" t="n">
-        <v>1.908999574153209</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="K36" t="n">
-        <v>2.008730241931289</v>
+        <v>8.34694592325231</v>
       </c>
       <c r="L36" t="n">
-        <v>18.19275653793353</v>
+        <v>24.53097221925455</v>
       </c>
       <c r="M36" t="n">
-        <v>40.22424295215657</v>
+        <v>46.56245863347759</v>
       </c>
       <c r="N36" t="n">
-        <v>63.84811268230253</v>
+        <v>70.18632836362356</v>
       </c>
       <c r="O36" t="n">
-        <v>83.06725959038354</v>
+        <v>89.40547527170457</v>
       </c>
       <c r="P36" t="n">
-        <v>95.35069610950764</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="Q36" t="n">
-        <v>95.44997870766045</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="R36" t="n">
-        <v>95.44997870766045</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="S36" t="n">
-        <v>71.34644873097852</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="T36" t="n">
-        <v>50.11605952751708</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="U36" t="n">
-        <v>50.11605952751708</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="V36" t="n">
-        <v>50.11605952751708</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="W36" t="n">
-        <v>50.11605952751708</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="X36" t="n">
-        <v>50.11605952751708</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="Y36" t="n">
-        <v>50.11605952751708</v>
+        <v>1.90899957415321</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.01252955083514</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="C37" t="n">
-        <v>26.01252955083514</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="D37" t="n">
-        <v>26.01252955083514</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="E37" t="n">
-        <v>26.01252955083514</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="F37" t="n">
-        <v>26.01252955083514</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="G37" t="n">
-        <v>26.01252955083514</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="H37" t="n">
-        <v>26.01252955083514</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="I37" t="n">
-        <v>1.908999574153209</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="J37" t="n">
-        <v>25.53286930429917</v>
+        <v>25.53286930429918</v>
       </c>
       <c r="K37" t="n">
-        <v>25.53286930429917</v>
+        <v>44.68730531194002</v>
       </c>
       <c r="L37" t="n">
-        <v>25.91933791090371</v>
+        <v>45.07377391854456</v>
       </c>
       <c r="M37" t="n">
-        <v>48.20223924736852</v>
+        <v>46.01072186711598</v>
       </c>
       <c r="N37" t="n">
-        <v>71.82610897751448</v>
+        <v>48.20223924736855</v>
       </c>
       <c r="O37" t="n">
-        <v>71.82610897751448</v>
+        <v>71.82610897751452</v>
       </c>
       <c r="P37" t="n">
-        <v>71.82610897751448</v>
+        <v>71.82610897751452</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.44997870766045</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="R37" t="n">
-        <v>71.34644873097852</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="S37" t="n">
-        <v>71.34644873097852</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="T37" t="n">
-        <v>71.34644873097852</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="U37" t="n">
-        <v>50.11605952751708</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="V37" t="n">
-        <v>26.01252955083514</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="W37" t="n">
-        <v>26.01252955083514</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="X37" t="n">
-        <v>26.01252955083514</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.01252955083514</v>
+        <v>50.11605952751709</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.90899957415321</v>
+        <v>47.2429187542966</v>
       </c>
       <c r="C38" t="n">
-        <v>1.90899957415321</v>
+        <v>47.2429187542966</v>
       </c>
       <c r="D38" t="n">
-        <v>1.90899957415321</v>
+        <v>47.2429187542966</v>
       </c>
       <c r="E38" t="n">
-        <v>1.90899957415321</v>
+        <v>47.2429187542966</v>
       </c>
       <c r="F38" t="n">
-        <v>1.90899957415321</v>
+        <v>47.2429187542966</v>
       </c>
       <c r="G38" t="n">
-        <v>1.90899957415321</v>
+        <v>23.13938877761466</v>
       </c>
       <c r="H38" t="n">
         <v>1.90899957415321</v>
@@ -7186,40 +7186,40 @@
         <v>44.05728702482661</v>
       </c>
       <c r="N38" t="n">
-        <v>66.24326259831405</v>
+        <v>66.24326259831403</v>
       </c>
       <c r="O38" t="n">
-        <v>85.02587025944861</v>
+        <v>85.0258702594486</v>
       </c>
       <c r="P38" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="R38" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="S38" t="n">
-        <v>95.44997870766049</v>
+        <v>71.34644873097854</v>
       </c>
       <c r="T38" t="n">
-        <v>95.44997870766049</v>
+        <v>71.34644873097854</v>
       </c>
       <c r="U38" t="n">
-        <v>95.44997870766049</v>
+        <v>47.2429187542966</v>
       </c>
       <c r="V38" t="n">
-        <v>95.44997870766049</v>
+        <v>47.2429187542966</v>
       </c>
       <c r="W38" t="n">
-        <v>74.21958950419904</v>
+        <v>47.2429187542966</v>
       </c>
       <c r="X38" t="n">
-        <v>50.11605952751709</v>
+        <v>47.2429187542966</v>
       </c>
       <c r="Y38" t="n">
-        <v>26.01252955083515</v>
+        <v>47.2429187542966</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>71.34644873097855</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="C39" t="n">
-        <v>71.34644873097855</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="D39" t="n">
-        <v>47.24291875429661</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="E39" t="n">
-        <v>23.13938877761467</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="F39" t="n">
-        <v>23.13938877761467</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="G39" t="n">
         <v>1.90899957415321</v>
@@ -7256,49 +7256,49 @@
         <v>1.90899957415321</v>
       </c>
       <c r="K39" t="n">
-        <v>8.34694592325231</v>
+        <v>2.00873024193131</v>
       </c>
       <c r="L39" t="n">
-        <v>24.53097221925455</v>
+        <v>18.19275653793355</v>
       </c>
       <c r="M39" t="n">
-        <v>40.22424295215662</v>
+        <v>40.22424295215659</v>
       </c>
       <c r="N39" t="n">
-        <v>63.84811268230258</v>
+        <v>63.84811268230256</v>
       </c>
       <c r="O39" t="n">
-        <v>83.0672595903836</v>
+        <v>83.06725959038357</v>
       </c>
       <c r="P39" t="n">
-        <v>95.35069610950768</v>
+        <v>95.35069610950767</v>
       </c>
       <c r="Q39" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="R39" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="S39" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="T39" t="n">
-        <v>95.44997870766049</v>
+        <v>71.34644873097854</v>
       </c>
       <c r="U39" t="n">
-        <v>71.34644873097855</v>
+        <v>71.34644873097854</v>
       </c>
       <c r="V39" t="n">
-        <v>71.34644873097855</v>
+        <v>71.34644873097854</v>
       </c>
       <c r="W39" t="n">
-        <v>71.34644873097855</v>
+        <v>71.34644873097854</v>
       </c>
       <c r="X39" t="n">
-        <v>71.34644873097855</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="Y39" t="n">
-        <v>71.34644873097855</v>
+        <v>50.11605952751709</v>
       </c>
     </row>
     <row r="40">
@@ -7332,49 +7332,49 @@
         <v>1.90899957415321</v>
       </c>
       <c r="J40" t="n">
-        <v>25.53286930429918</v>
+        <v>24.57836951722257</v>
       </c>
       <c r="K40" t="n">
-        <v>47.81577064076401</v>
+        <v>24.57836951722257</v>
       </c>
       <c r="L40" t="n">
-        <v>48.20223924736855</v>
+        <v>48.20223924736854</v>
       </c>
       <c r="M40" t="n">
-        <v>71.82610897751452</v>
+        <v>71.82610897751451</v>
       </c>
       <c r="N40" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="O40" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="P40" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="R40" t="n">
-        <v>95.44997870766049</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="S40" t="n">
-        <v>71.34644873097855</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="T40" t="n">
+        <v>74.21958950419904</v>
+      </c>
+      <c r="U40" t="n">
         <v>50.11605952751709</v>
       </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
         <v>26.01252955083515</v>
       </c>
-      <c r="V40" t="n">
-        <v>1.90899957415321</v>
-      </c>
       <c r="W40" t="n">
-        <v>1.90899957415321</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="X40" t="n">
-        <v>1.90899957415321</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="Y40" t="n">
         <v>1.90899957415321</v>
@@ -7390,13 +7390,13 @@
         <v>50.11605952751709</v>
       </c>
       <c r="C41" t="n">
-        <v>50.11605952751709</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="D41" t="n">
-        <v>50.11605952751709</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="E41" t="n">
-        <v>50.11605952751709</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="F41" t="n">
         <v>26.01252955083515</v>
@@ -7414,10 +7414,10 @@
         <v>1.90899957415321</v>
       </c>
       <c r="K41" t="n">
-        <v>8.629045391172387</v>
+        <v>8.629045391172383</v>
       </c>
       <c r="L41" t="n">
-        <v>22.96239275619888</v>
+        <v>22.96239275619889</v>
       </c>
       <c r="M41" t="n">
         <v>44.05728702482661</v>
@@ -7426,10 +7426,10 @@
         <v>66.24326259831403</v>
       </c>
       <c r="O41" t="n">
-        <v>85.0258702594486</v>
+        <v>85.02587025944861</v>
       </c>
       <c r="P41" t="n">
-        <v>95.44997870766048</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="Q41" t="n">
         <v>95.44997870766048</v>
@@ -7438,16 +7438,16 @@
         <v>95.44997870766048</v>
       </c>
       <c r="S41" t="n">
-        <v>95.44997870766048</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="T41" t="n">
-        <v>95.44997870766048</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="U41" t="n">
-        <v>71.34644873097854</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="V41" t="n">
-        <v>71.34644873097854</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="W41" t="n">
         <v>50.11605952751709</v>
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>47.2429187542966</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="C42" t="n">
-        <v>47.2429187542966</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="D42" t="n">
-        <v>47.2429187542966</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="E42" t="n">
-        <v>47.2429187542966</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="F42" t="n">
-        <v>47.2429187542966</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="G42" t="n">
-        <v>26.01252955083515</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="H42" t="n">
         <v>1.90899957415321</v>
@@ -7502,7 +7502,7 @@
         <v>46.56245863347759</v>
       </c>
       <c r="N42" t="n">
-        <v>63.94739528045538</v>
+        <v>70.18632836362356</v>
       </c>
       <c r="O42" t="n">
         <v>83.1665421885364</v>
@@ -7520,22 +7520,22 @@
         <v>95.44997870766048</v>
       </c>
       <c r="T42" t="n">
-        <v>71.34644873097854</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="U42" t="n">
-        <v>71.34644873097854</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="V42" t="n">
-        <v>47.2429187542966</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="W42" t="n">
-        <v>47.2429187542966</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="X42" t="n">
-        <v>47.2429187542966</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="Y42" t="n">
-        <v>47.2429187542966</v>
+        <v>74.21958950419904</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="C43" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="D43" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="E43" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="F43" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="G43" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="H43" t="n">
-        <v>1.90899957415321</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="I43" t="n">
         <v>1.90899957415321</v>
       </c>
       <c r="J43" t="n">
-        <v>1.90899957415321</v>
+        <v>21.06343558179403</v>
       </c>
       <c r="K43" t="n">
-        <v>1.90899957415321</v>
+        <v>44.68730531194</v>
       </c>
       <c r="L43" t="n">
-        <v>25.53286930429918</v>
+        <v>45.07377391854455</v>
       </c>
       <c r="M43" t="n">
-        <v>49.15673903444515</v>
+        <v>46.01072186711596</v>
       </c>
       <c r="N43" t="n">
-        <v>72.78060876459112</v>
+        <v>48.20223924736854</v>
       </c>
       <c r="O43" t="n">
-        <v>95.44997870766048</v>
+        <v>48.20223924736854</v>
       </c>
       <c r="P43" t="n">
-        <v>95.44997870766048</v>
+        <v>71.82610897751451</v>
       </c>
       <c r="Q43" t="n">
         <v>95.44997870766048</v>
       </c>
       <c r="R43" t="n">
-        <v>71.34644873097854</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="S43" t="n">
-        <v>47.2429187542966</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="T43" t="n">
-        <v>23.13938877761466</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="U43" t="n">
-        <v>23.13938877761466</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="V43" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="W43" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="X43" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.90899957415321</v>
+        <v>50.11605952751709</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.16817154707827</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="C44" t="n">
-        <v>2.16817154707827</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="D44" t="n">
-        <v>2.16817154707827</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="E44" t="n">
-        <v>2.16817154707827</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="F44" t="n">
-        <v>2.16817154707827</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="G44" t="n">
-        <v>2.16817154707827</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="H44" t="n">
-        <v>2.16817154707827</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="I44" t="n">
-        <v>2.16817154707827</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="J44" t="n">
-        <v>2.16817154707827</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="K44" t="n">
-        <v>10.41318076204948</v>
+        <v>8.629045391172387</v>
       </c>
       <c r="L44" t="n">
-        <v>26.63838006872331</v>
+        <v>22.96239275619888</v>
       </c>
       <c r="M44" t="n">
-        <v>49.83832414327775</v>
+        <v>44.05728702482661</v>
       </c>
       <c r="N44" t="n">
-        <v>74.1634114293136</v>
+        <v>66.24326259831405</v>
       </c>
       <c r="O44" t="n">
-        <v>94.96592162254092</v>
+        <v>85.02587025944861</v>
       </c>
       <c r="P44" t="n">
-        <v>107.1139701497973</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="Q44" t="n">
-        <v>108.4085773539135</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="R44" t="n">
-        <v>108.4085773539135</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="S44" t="n">
-        <v>84.29588166367941</v>
+        <v>71.34644873097855</v>
       </c>
       <c r="T44" t="n">
-        <v>84.29588166367941</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="U44" t="n">
-        <v>56.91997829147903</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="V44" t="n">
-        <v>29.54407491927865</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="W44" t="n">
-        <v>2.16817154707827</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="X44" t="n">
-        <v>2.16817154707827</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.16817154707827</v>
+        <v>26.01252955083515</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>81.03267398171312</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="C45" t="n">
-        <v>81.03267398171312</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="D45" t="n">
-        <v>81.03267398171312</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="E45" t="n">
-        <v>81.03267398171312</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="F45" t="n">
-        <v>56.91997829147903</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="G45" t="n">
-        <v>29.54407491927865</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="H45" t="n">
-        <v>2.16817154707827</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="I45" t="n">
-        <v>2.16817154707827</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="J45" t="n">
-        <v>2.16817154707827</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="K45" t="n">
-        <v>9.641892186667892</v>
+        <v>8.34694592325231</v>
       </c>
       <c r="L45" t="n">
-        <v>27.21864483872123</v>
+        <v>24.53097221925455</v>
       </c>
       <c r="M45" t="n">
-        <v>50.87537721979754</v>
+        <v>46.56245863347759</v>
       </c>
       <c r="N45" t="n">
-        <v>77.49963771300574</v>
+        <v>63.94739528045538</v>
       </c>
       <c r="O45" t="n">
-        <v>93.98221763556066</v>
+        <v>83.1665421885364</v>
       </c>
       <c r="P45" t="n">
-        <v>107.4905106356413</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="Q45" t="n">
-        <v>108.4085773539135</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="R45" t="n">
-        <v>108.4085773539135</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="S45" t="n">
-        <v>108.4085773539135</v>
+        <v>74.21958950419904</v>
       </c>
       <c r="T45" t="n">
-        <v>108.4085773539135</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="U45" t="n">
-        <v>108.4085773539135</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="V45" t="n">
-        <v>81.03267398171312</v>
+        <v>50.11605952751709</v>
       </c>
       <c r="W45" t="n">
-        <v>81.03267398171312</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="X45" t="n">
-        <v>81.03267398171312</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="Y45" t="n">
-        <v>81.03267398171312</v>
+        <v>26.01252955083515</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.29588166367941</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="C46" t="n">
-        <v>84.29588166367941</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="D46" t="n">
-        <v>84.29588166367941</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="E46" t="n">
-        <v>56.91997829147903</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="F46" t="n">
-        <v>29.54407491927865</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="G46" t="n">
-        <v>29.54407491927865</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="H46" t="n">
-        <v>29.54407491927865</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="I46" t="n">
-        <v>2.16817154707827</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="J46" t="n">
-        <v>28.99929444217186</v>
+        <v>24.57836951722258</v>
       </c>
       <c r="K46" t="n">
-        <v>28.99929444217186</v>
+        <v>24.57836951722258</v>
       </c>
       <c r="L46" t="n">
-        <v>30.18525989166762</v>
+        <v>48.20223924736855</v>
       </c>
       <c r="M46" t="n">
-        <v>57.01638278676121</v>
+        <v>71.82610897751452</v>
       </c>
       <c r="N46" t="n">
-        <v>60.03081384907249</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="O46" t="n">
-        <v>86.86193674416607</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="P46" t="n">
-        <v>108.4085773539135</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="Q46" t="n">
-        <v>108.4085773539135</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="R46" t="n">
-        <v>84.29588166367941</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="S46" t="n">
-        <v>84.29588166367941</v>
+        <v>71.34644873097855</v>
       </c>
       <c r="T46" t="n">
-        <v>84.29588166367941</v>
+        <v>47.24291875429661</v>
       </c>
       <c r="U46" t="n">
-        <v>84.29588166367941</v>
+        <v>47.24291875429661</v>
       </c>
       <c r="V46" t="n">
-        <v>84.29588166367941</v>
+        <v>47.24291875429661</v>
       </c>
       <c r="W46" t="n">
-        <v>84.29588166367941</v>
+        <v>47.24291875429661</v>
       </c>
       <c r="X46" t="n">
-        <v>84.29588166367941</v>
+        <v>47.24291875429661</v>
       </c>
       <c r="Y46" t="n">
-        <v>84.29588166367941</v>
+        <v>26.01252955083515</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>7.727993863709251</v>
       </c>
       <c r="M2" t="n">
-        <v>3.400615951243282</v>
+        <v>3.400615951243275</v>
       </c>
       <c r="N2" t="n">
         <v>2.698324440689774</v>
@@ -8145,7 +8145,7 @@
         <v>8.993937537569462</v>
       </c>
       <c r="M4" t="n">
-        <v>8.948026908651903</v>
+        <v>8.948026908651901</v>
       </c>
       <c r="N4" t="n">
         <v>7.445517414732592</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.048734084456811</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.66564216510813</v>
+        <v>10.66564216510812</v>
       </c>
       <c r="J12" t="n">
-        <v>5.500186294714753</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.330695053476191</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R12" t="n">
-        <v>13.74254024207671</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>20.44397475737996</v>
       </c>
       <c r="L13" t="n">
-        <v>16.43299203069152</v>
+        <v>16.43299203069151</v>
       </c>
       <c r="M13" t="n">
-        <v>1.556338985162753</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2295873088291565</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O13" t="n">
-        <v>3.546280180004736</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P13" t="n">
-        <v>6.16331423116273</v>
+        <v>21.22136849064185</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.44947004008836</v>
+        <v>13.39141578060923</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.15664534489041</v>
+        <v>26.21469960436954</v>
       </c>
       <c r="K16" t="n">
-        <v>19.83556852467374</v>
+        <v>20.44397475737996</v>
       </c>
       <c r="L16" t="n">
-        <v>1.98334400391861</v>
+        <v>16.43299203069151</v>
       </c>
       <c r="M16" t="n">
-        <v>16.61439324464187</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N16" t="n">
-        <v>15.28764156830828</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O16" t="n">
-        <v>18.60433443948386</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P16" t="n">
         <v>6.163314231162726</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.39141578060923</v>
+        <v>28.44947004008836</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>10.77286693432814</v>
+        <v>28.99117420462825</v>
       </c>
       <c r="K19" t="n">
-        <v>22.97356194757786</v>
+        <v>4.755254677277744</v>
       </c>
       <c r="L19" t="n">
-        <v>18.6585229314212</v>
+        <v>1.176308884163515</v>
       </c>
       <c r="M19" t="n">
-        <v>18.92374087635456</v>
+        <v>0.7054336060544522</v>
       </c>
       <c r="N19" t="n">
-        <v>17.61722182806913</v>
+        <v>17.61722182806912</v>
       </c>
       <c r="O19" t="n">
         <v>2.779019446119918</v>
       </c>
       <c r="P19" t="n">
-        <v>5.506790124936618</v>
+        <v>22.9890041721943</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.9368725197517</v>
+        <v>31.15517979005181</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.021643902788</v>
+        <v>3.021643902788004</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.536891551628969</v>
+        <v>2.536891551628976</v>
       </c>
       <c r="R20" t="n">
         <v>15.49488714450009</v>
@@ -9479,7 +9479,7 @@
         <v>10.44271547525859</v>
       </c>
       <c r="J21" t="n">
-        <v>4.888458418784959</v>
+        <v>4.888458418784962</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.504190801070976</v>
+        <v>1.50419080107098</v>
       </c>
       <c r="R21" t="n">
-        <v>13.34053384443211</v>
+        <v>13.34053384443212</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>10.77286693432814</v>
+        <v>28.99117420462826</v>
       </c>
       <c r="K22" t="n">
         <v>22.97356194757786</v>
       </c>
       <c r="L22" t="n">
-        <v>19.39461615446363</v>
+        <v>1.176308884163518</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7054336060544522</v>
+        <v>0.7054336060544557</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>19.66014805114661</v>
+        <v>2.779019446119921</v>
       </c>
       <c r="P22" t="n">
-        <v>23.72509739523673</v>
+        <v>22.38791872996332</v>
       </c>
       <c r="Q22" t="n">
-        <v>12.9368725197517</v>
+        <v>31.15517979005181</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.027774177190942</v>
+        <v>1.027774177190938</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>14.01919626068105</v>
+        <v>14.01919626068104</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.00995232957614</v>
       </c>
       <c r="J24" t="n">
-        <v>3.700923269594423</v>
+        <v>3.700923269594419</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.32217277345274</v>
+        <v>33.89034022187066</v>
       </c>
       <c r="K25" t="n">
-        <v>3.530955673011054</v>
+        <v>27.39345034992618</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>22.91608260765107</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>25.15204613255473</v>
+        <v>1.289551455639593</v>
       </c>
       <c r="P25" t="n">
-        <v>4.232292945534113</v>
+        <v>23.58020810476726</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.91697141197978</v>
+        <v>35.91697141197977</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.027774177190942</v>
+        <v>1.027774177190938</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>14.01919626068105</v>
+        <v>14.01919626068104</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.00995232957614</v>
       </c>
       <c r="J27" t="n">
-        <v>3.700923269594423</v>
+        <v>3.700923269594419</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.32217277345275</v>
+        <v>10.02784554495552</v>
       </c>
       <c r="K28" t="n">
-        <v>27.39345034992618</v>
+        <v>3.53095567301105</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>23.47212234701153</v>
       </c>
       <c r="M28" t="n">
-        <v>22.91608260765107</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.289551455639597</v>
+        <v>25.15204613255471</v>
       </c>
       <c r="P28" t="n">
-        <v>4.232292945534113</v>
+        <v>23.97058043467084</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.91697141197977</v>
+        <v>35.91697141197976</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.32217277345273</v>
+        <v>33.89034022187064</v>
       </c>
       <c r="K31" t="n">
-        <v>27.39345034992617</v>
+        <v>27.39345034992618</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>22.91608260765106</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.289551455639597</v>
+        <v>20.63746661487276</v>
       </c>
       <c r="P31" t="n">
-        <v>4.232292945534113</v>
+        <v>28.09478762244923</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.91697141197977</v>
+        <v>12.05447673506465</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>33.89034022187064</v>
       </c>
       <c r="K34" t="n">
-        <v>23.82528290150827</v>
+        <v>27.39345034992618</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>19.34791515923317</v>
       </c>
       <c r="M34" t="n">
-        <v>22.91608260765107</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>33.89034022187064</v>
       </c>
       <c r="K37" t="n">
-        <v>3.530955673011054</v>
+        <v>22.87887083224422</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>21.56156907868019</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>21.64884075746807</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.289551455639597</v>
+        <v>25.15204613255472</v>
       </c>
       <c r="P37" t="n">
         <v>4.232292945534113</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.91697141197976</v>
+        <v>35.91697141197977</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.89034022187064</v>
+        <v>32.92619902280336</v>
       </c>
       <c r="K40" t="n">
-        <v>26.03893682095532</v>
+        <v>3.530955673011054</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>23.47212234701154</v>
       </c>
       <c r="M40" t="n">
-        <v>22.91608260765107</v>
+        <v>22.91608260765106</v>
       </c>
       <c r="N40" t="n">
-        <v>21.64884075746808</v>
+        <v>21.64884075746807</v>
       </c>
       <c r="O40" t="n">
         <v>1.289551455639597</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>10.02784554495553</v>
+        <v>29.37576070418868</v>
       </c>
       <c r="K43" t="n">
-        <v>3.530955673011054</v>
+        <v>27.39345034992617</v>
       </c>
       <c r="L43" t="n">
-        <v>23.47212234701154</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>22.91608260765106</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>21.64884075746807</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.18790493348743</v>
+        <v>1.289551455639597</v>
       </c>
       <c r="P43" t="n">
-        <v>4.232292945534113</v>
+        <v>28.09478762244923</v>
       </c>
       <c r="Q43" t="n">
-        <v>12.05447673506465</v>
+        <v>35.91697141197977</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.027774177190942</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>13.25852621066004</v>
+        <v>14.01919626068105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.786877180652272</v>
+        <v>10.00995232957614</v>
       </c>
       <c r="J45" t="n">
-        <v>3.088788010617488</v>
+        <v>3.700923269594423</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>12.15785271087198</v>
+        <v>12.56012682656195</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>36.74595589383971</v>
+        <v>32.92619902280337</v>
       </c>
       <c r="K46" t="n">
-        <v>2.899869857527751</v>
+        <v>3.530955673011054</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>23.47212234701155</v>
       </c>
       <c r="M46" t="n">
-        <v>25.30426022567921</v>
+        <v>22.91608260765107</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>21.64884075746807</v>
       </c>
       <c r="O46" t="n">
-        <v>27.62392409935002</v>
+        <v>1.289551455639597</v>
       </c>
       <c r="P46" t="n">
-        <v>25.33961506819056</v>
+        <v>4.232292945534113</v>
       </c>
       <c r="Q46" t="n">
-        <v>11.59963076899135</v>
+        <v>12.05447673506465</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>400.5918263891356</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23269,13 +23269,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>405.8148857330146</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>399.9967427842381</v>
       </c>
       <c r="H11" t="n">
-        <v>278.5651539050962</v>
+        <v>291.8282880968454</v>
       </c>
       <c r="I11" t="n">
         <v>23.02344218634936</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.51177654778198</v>
+        <v>83.24864235603276</v>
       </c>
       <c r="T11" t="n">
         <v>217.4077535386488</v>
       </c>
       <c r="U11" t="n">
-        <v>240.6893917298961</v>
+        <v>255.7474459893752</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>338.8564664655339</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>377.3693819431774</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>386.2258430851794</v>
       </c>
     </row>
     <row r="12">
@@ -23348,13 +23348,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
-        <v>77.65131775444576</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>79.69015875621704</v>
+        <v>77.89523868848713</v>
       </c>
       <c r="H12" t="n">
-        <v>51.29763783704193</v>
+        <v>36.2395835775628</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23390,13 +23390,13 @@
         <v>77.54016887301827</v>
       </c>
       <c r="T12" t="n">
-        <v>139.8164614059971</v>
+        <v>126.5533272142479</v>
       </c>
       <c r="U12" t="n">
-        <v>167.8519374181986</v>
+        <v>182.9099916776777</v>
       </c>
       <c r="V12" t="n">
-        <v>187.8653532126473</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
         <v>194.556163395115</v>
@@ -23405,7 +23405,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y12" t="n">
-        <v>138.2959597602405</v>
+        <v>123.2379055007614</v>
       </c>
     </row>
     <row r="13">
@@ -23469,7 +23469,7 @@
         <v>166.0968869128348</v>
       </c>
       <c r="T13" t="n">
-        <v>240.3330274607752</v>
+        <v>227.069893269026</v>
       </c>
       <c r="U13" t="n">
         <v>262.3172357956164</v>
@@ -23484,7 +23484,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>210.8162064354062</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>407.5736684273537</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.51177654778198</v>
+        <v>81.45372228830286</v>
       </c>
       <c r="T14" t="n">
-        <v>202.3496992791696</v>
+        <v>204.1446193468996</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7474459893752</v>
+        <v>240.6893917298961</v>
       </c>
       <c r="V14" t="n">
-        <v>338.8564664655339</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>392.5447445844511</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>388.0207631529094</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D15" t="n">
-        <v>102.8015588998678</v>
+        <v>89.53842470811861</v>
       </c>
       <c r="E15" t="n">
         <v>103.6549143897921</v>
@@ -23588,10 +23588,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>77.89523868848713</v>
+        <v>92.95329294796625</v>
       </c>
       <c r="H15" t="n">
-        <v>36.2395835775628</v>
+        <v>51.29763783704193</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,16 +23624,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>77.54016887301827</v>
+        <v>62.48211461353915</v>
       </c>
       <c r="T15" t="n">
-        <v>139.8164614059971</v>
+        <v>124.758407146518</v>
       </c>
       <c r="U15" t="n">
-        <v>169.6468574859285</v>
+        <v>167.8519374181986</v>
       </c>
       <c r="V15" t="n">
-        <v>187.8653532126473</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W15" t="n">
         <v>194.556163395115</v>
@@ -23658,7 +23658,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>148.4204709527478</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23667,7 +23667,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>149.4022564898391</v>
+        <v>164.4603107493182</v>
       </c>
       <c r="H16" t="n">
         <v>141.1661303916059</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.48103222065013</v>
+        <v>27.27595228838005</v>
       </c>
       <c r="S16" t="n">
         <v>151.0388326533557</v>
       </c>
       <c r="T16" t="n">
-        <v>240.3330274607752</v>
+        <v>225.2749732012961</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3752900550955</v>
+        <v>262.3172357956164</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23734,7 +23734,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>404.4134154165328</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23752,7 +23752,7 @@
         <v>291.7043547567607</v>
       </c>
       <c r="I17" t="n">
-        <v>22.55690342461458</v>
+        <v>6.510218380934244</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>80.18933112454049</v>
+        <v>78.01770889792071</v>
       </c>
       <c r="T17" t="n">
         <v>217.3547797125806</v>
@@ -23791,10 +23791,10 @@
         <v>237.5281706080333</v>
       </c>
       <c r="V17" t="n">
-        <v>335.6962134547129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>374.2091289323565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23822,13 +23822,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>92.70937201392488</v>
+        <v>74.49106474362476</v>
       </c>
       <c r="G18" t="n">
-        <v>92.94681813455406</v>
+        <v>74.72851086425395</v>
       </c>
       <c r="H18" t="n">
-        <v>51.2351047706663</v>
+        <v>33.01679750036618</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>59.20159478341716</v>
+        <v>61.37321701003694</v>
       </c>
       <c r="T18" t="n">
         <v>139.7903633642173</v>
       </c>
       <c r="U18" t="n">
-        <v>164.691258432811</v>
+        <v>182.9095657031111</v>
       </c>
       <c r="V18" t="n">
-        <v>184.7051002018263</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W18" t="n">
-        <v>178.5094783514346</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
         <v>161.8425727710037</v>
@@ -23895,16 +23895,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>143.4652978741969</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>146.3278165183749</v>
       </c>
       <c r="F19" t="n">
-        <v>151.9248492128851</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.4548824832565</v>
+        <v>146.2365752129564</v>
       </c>
       <c r="H19" t="n">
         <v>141.1178681715301</v>
@@ -23943,10 +23943,10 @@
         <v>166.0022870397414</v>
       </c>
       <c r="T19" t="n">
-        <v>240.3098339603297</v>
+        <v>222.0915266900296</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3749939678559</v>
+        <v>261.3283089241755</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -23955,7 +23955,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>224.0915725449726</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -23983,13 +23983,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>399.9846413962156</v>
+        <v>381.7663341259155</v>
       </c>
       <c r="H20" t="n">
         <v>291.7043547567607</v>
       </c>
       <c r="I20" t="n">
-        <v>22.55690342461458</v>
+        <v>22.55690342461459</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>96.23601616822083</v>
+        <v>78.01770889792071</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1364724422805</v>
+        <v>217.3547797125806</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7464778783334</v>
+        <v>239.6997928346531</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>374.2091289323565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>389.3844915736301</v>
       </c>
       <c r="Y20" t="n">
-        <v>385.2372123009782</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.6377393258621</v>
+        <v>111.5910542821817</v>
       </c>
       <c r="C21" t="n">
         <v>116.3308444476703</v>
@@ -24056,7 +24056,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
-        <v>85.43660711949202</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
         <v>92.70937201392488</v>
@@ -24065,7 +24065,7 @@
         <v>92.94681813455406</v>
       </c>
       <c r="H21" t="n">
-        <v>51.2351047706663</v>
+        <v>33.01679750036618</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>61.37321701003694</v>
+        <v>77.41990205371728</v>
       </c>
       <c r="T21" t="n">
         <v>139.7903633642173</v>
@@ -24110,13 +24110,13 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W21" t="n">
-        <v>176.3378561248149</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X21" t="n">
         <v>143.6242655007036</v>
       </c>
       <c r="Y21" t="n">
-        <v>138.2959597602405</v>
+        <v>120.0776524899404</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>152.034530219573</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24144,7 +24144,7 @@
         <v>164.4548824832565</v>
       </c>
       <c r="H22" t="n">
-        <v>141.1178681715301</v>
+        <v>122.8995609012299</v>
       </c>
       <c r="I22" t="n">
         <v>94.57521008439309</v>
@@ -24183,16 +24183,16 @@
         <v>240.3098339603297</v>
       </c>
       <c r="U22" t="n">
-        <v>259.1566866975558</v>
+        <v>261.3283089241755</v>
       </c>
       <c r="V22" t="n">
-        <v>262.8476676743711</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>221.9199503183528</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -24214,13 +24214,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>397.8546757767059</v>
       </c>
       <c r="F23" t="n">
-        <v>399.8548546810669</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>399.961149212524</v>
+        <v>378.9430639010972</v>
       </c>
       <c r="H23" t="n">
         <v>291.4637654305288</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>95.70068803234793</v>
+        <v>71.83819335543278</v>
       </c>
       <c r="T23" t="n">
-        <v>193.3894480015554</v>
+        <v>217.2519426784705</v>
       </c>
       <c r="U23" t="n">
-        <v>231.882103826723</v>
+        <v>255.7445985036381</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24287,10 +24287,10 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C24" t="n">
-        <v>95.31275913624343</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D24" t="n">
-        <v>78.93906422295268</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E24" t="n">
         <v>103.6549143897921</v>
@@ -24299,7 +24299,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>92.93424870815717</v>
+        <v>69.07175403124204</v>
       </c>
       <c r="H24" t="n">
         <v>51.11371057362263</v>
@@ -24335,22 +24335,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>77.18643047130134</v>
+        <v>53.32393579438619</v>
       </c>
       <c r="T24" t="n">
-        <v>139.7396997551877</v>
+        <v>115.8772050782726</v>
       </c>
       <c r="U24" t="n">
-        <v>182.908738767164</v>
+        <v>161.8906534557371</v>
       </c>
       <c r="V24" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W24" t="n">
-        <v>170.6936687181998</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X24" t="n">
-        <v>137.9800780940886</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y24" t="n">
         <v>138.2959597602405</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>164.4018143480299</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -24378,10 +24378,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>140.5818500214846</v>
+        <v>164.4443446983998</v>
       </c>
       <c r="H25" t="n">
-        <v>117.161683007434</v>
+        <v>141.0241776843491</v>
       </c>
       <c r="I25" t="n">
         <v>94.25831015433721</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.95870009555334</v>
+        <v>15.95870009555333</v>
       </c>
       <c r="S25" t="n">
         <v>165.8186421891014</v>
@@ -24420,19 +24420,19 @@
         <v>240.2648088795781</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3744191795909</v>
+        <v>256.3563338681641</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>251.0857944777853</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>200.2168459502402</v>
       </c>
     </row>
     <row r="26">
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>74.68260272092108</v>
+        <v>71.83819335543279</v>
       </c>
       <c r="T26" t="n">
         <v>193.3894480015554</v>
@@ -24502,7 +24502,7 @@
         <v>231.882103826723</v>
       </c>
       <c r="V26" t="n">
-        <v>330.0520260480979</v>
+        <v>332.8964354135862</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -24524,7 +24524,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C27" t="n">
-        <v>92.46834977075514</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D27" t="n">
         <v>102.8015588998678</v>
@@ -24533,10 +24533,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F27" t="n">
-        <v>92.70937201392488</v>
+        <v>68.84687733700976</v>
       </c>
       <c r="G27" t="n">
-        <v>71.91616339673033</v>
+        <v>92.93424870815717</v>
       </c>
       <c r="H27" t="n">
         <v>51.11371057362263</v>
@@ -24572,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>77.18643047130134</v>
+        <v>77.18643047130132</v>
       </c>
       <c r="T27" t="n">
-        <v>139.7396997551877</v>
+        <v>115.8772050782726</v>
       </c>
       <c r="U27" t="n">
-        <v>182.908738767164</v>
+        <v>161.8906534557371</v>
       </c>
       <c r="V27" t="n">
         <v>202.9234074721264</v>
@@ -24587,7 +24587,7 @@
         <v>170.6936687181998</v>
       </c>
       <c r="X27" t="n">
-        <v>137.9800780940886</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y27" t="n">
         <v>138.2959597602405</v>
@@ -24612,7 +24612,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>149.1250711717583</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.4443446983998</v>
@@ -24621,7 +24621,7 @@
         <v>117.161683007434</v>
       </c>
       <c r="I28" t="n">
-        <v>94.25831015433721</v>
+        <v>70.39581547742209</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>15.95870009555334</v>
+        <v>15.95870009555335</v>
       </c>
       <c r="S28" t="n">
-        <v>165.8186421891014</v>
+        <v>144.8005568776745</v>
       </c>
       <c r="T28" t="n">
         <v>240.2648088795781</v>
       </c>
       <c r="U28" t="n">
-        <v>253.5119245026758</v>
+        <v>277.3744191795909</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -24682,7 +24682,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>398.7692280099178</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24697,10 +24697,10 @@
         <v>399.961149212524</v>
       </c>
       <c r="H29" t="n">
-        <v>291.4637654305288</v>
+        <v>270.445680119102</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>21.65122101284321</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>71.83819335543281</v>
       </c>
       <c r="T29" t="n">
-        <v>193.3894480015554</v>
+        <v>217.2519426784705</v>
       </c>
       <c r="U29" t="n">
         <v>255.7445985036381</v>
@@ -24742,10 +24742,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>368.5649415257415</v>
       </c>
       <c r="X29" t="n">
-        <v>384.3734398684315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24773,7 +24773,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>69.07175403124205</v>
+        <v>92.93424870815717</v>
       </c>
       <c r="H30" t="n">
         <v>51.11371057362263</v>
@@ -24812,7 +24812,7 @@
         <v>77.18643047130134</v>
       </c>
       <c r="T30" t="n">
-        <v>115.8772050782726</v>
+        <v>139.7396997551877</v>
       </c>
       <c r="U30" t="n">
         <v>161.8906534557371</v>
@@ -24821,10 +24821,10 @@
         <v>179.0609127952113</v>
       </c>
       <c r="W30" t="n">
-        <v>194.556163395115</v>
+        <v>170.6936687181998</v>
       </c>
       <c r="X30" t="n">
-        <v>161.8425727710037</v>
+        <v>137.9800780940886</v>
       </c>
       <c r="Y30" t="n">
         <v>138.2959597602405</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>164.4018143480299</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -24846,7 +24846,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>143.5280384772481</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24855,7 +24855,7 @@
         <v>164.4443446983998</v>
       </c>
       <c r="H31" t="n">
-        <v>117.161683007434</v>
+        <v>141.0241776843491</v>
       </c>
       <c r="I31" t="n">
         <v>94.25831015433721</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>15.95870009555335</v>
+        <v>39.82119477246847</v>
       </c>
       <c r="S31" t="n">
-        <v>141.9561475121862</v>
+        <v>165.8186421891014</v>
       </c>
       <c r="T31" t="n">
-        <v>219.2467235681513</v>
+        <v>216.402314202663</v>
       </c>
       <c r="U31" t="n">
         <v>277.3744191795909</v>
@@ -24906,7 +24906,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>200.2168459502402</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>397.0104453155786</v>
       </c>
       <c r="G32" t="n">
         <v>399.961149212524</v>
@@ -24937,7 +24937,7 @@
         <v>291.4637654305288</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6331357014163714</v>
+        <v>21.65122101284321</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>71.83819335543281</v>
+        <v>74.68260272092108</v>
       </c>
       <c r="T32" t="n">
         <v>217.2519426784705</v>
       </c>
       <c r="U32" t="n">
-        <v>231.882103826723</v>
+        <v>255.7445985036381</v>
       </c>
       <c r="V32" t="n">
         <v>330.0520260480979</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>368.5649415257415</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -25004,13 +25004,13 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E33" t="n">
-        <v>103.6549143897921</v>
+        <v>79.79241971287702</v>
       </c>
       <c r="F33" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>92.93424870815717</v>
+        <v>69.07175403124205</v>
       </c>
       <c r="H33" t="n">
         <v>51.11371057362263</v>
@@ -25046,22 +25046,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>77.18643047130134</v>
+        <v>56.16834515987449</v>
       </c>
       <c r="T33" t="n">
         <v>139.7396997551877</v>
       </c>
       <c r="U33" t="n">
-        <v>161.8906534557371</v>
+        <v>182.908738767164</v>
       </c>
       <c r="V33" t="n">
-        <v>179.0609127952113</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W33" t="n">
         <v>170.6936687181998</v>
       </c>
       <c r="X33" t="n">
-        <v>137.9800780940886</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y33" t="n">
         <v>138.2959597602405</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>167.2462237135182</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>137.8211104675819</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>140.6836291117598</v>
       </c>
       <c r="F34" t="n">
-        <v>146.28066180627</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.4443446983998</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>39.82119477246847</v>
+        <v>18.80310946104163</v>
       </c>
       <c r="S34" t="n">
         <v>165.8186421891014</v>
@@ -25134,16 +25134,16 @@
         <v>277.3744191795909</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>255.0318580411362</v>
       </c>
       <c r="W34" t="n">
-        <v>248.241385112297</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.2168459502402</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>391.7873859716996</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>398.7692280099178</v>
       </c>
       <c r="D35" t="n">
-        <v>395.1971999299346</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25168,7 +25168,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>378.9430639010972</v>
+        <v>376.0986545356089</v>
       </c>
       <c r="H35" t="n">
         <v>291.4637654305288</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>95.70068803234793</v>
+        <v>71.83819335543281</v>
       </c>
       <c r="T35" t="n">
         <v>217.2519426784705</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7445985036381</v>
+        <v>234.7265131922113</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25219,7 +25219,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>383.7403041670151</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25244,13 +25244,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F36" t="n">
-        <v>68.84687733700977</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
         <v>92.93424870815717</v>
       </c>
       <c r="H36" t="n">
-        <v>27.25121589670752</v>
+        <v>51.11371057362263</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>53.32393579438622</v>
+        <v>56.16834515987449</v>
       </c>
       <c r="T36" t="n">
-        <v>118.7216144437609</v>
+        <v>139.7396997551877</v>
       </c>
       <c r="U36" t="n">
-        <v>182.908738767164</v>
+        <v>159.0462440902488</v>
       </c>
       <c r="V36" t="n">
-        <v>202.9234074721264</v>
+        <v>179.0609127952113</v>
       </c>
       <c r="W36" t="n">
-        <v>194.556163395115</v>
+        <v>170.6936687181998</v>
       </c>
       <c r="X36" t="n">
         <v>161.8425727710037</v>
@@ -25317,7 +25317,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>137.8211104675819</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25326,13 +25326,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.4443446983998</v>
+        <v>140.5818500214846</v>
       </c>
       <c r="H37" t="n">
         <v>141.0241776843491</v>
       </c>
       <c r="I37" t="n">
-        <v>70.39581547742209</v>
+        <v>94.25831015433721</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>15.95870009555335</v>
+        <v>39.82119477246847</v>
       </c>
       <c r="S37" t="n">
-        <v>165.8186421891014</v>
+        <v>144.8005568776745</v>
       </c>
       <c r="T37" t="n">
         <v>240.2648088795781</v>
       </c>
       <c r="U37" t="n">
-        <v>256.3563338681641</v>
+        <v>277.3744191795909</v>
       </c>
       <c r="V37" t="n">
-        <v>255.0318580411363</v>
+        <v>255.0318580411362</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>391.7873859716996</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25405,10 +25405,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>399.961149212524</v>
+        <v>376.0986545356089</v>
       </c>
       <c r="H38" t="n">
-        <v>291.4637654305288</v>
+        <v>270.445680119102</v>
       </c>
       <c r="I38" t="n">
         <v>21.65122101284321</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>95.70068803234793</v>
+        <v>71.83819335543281</v>
       </c>
       <c r="T38" t="n">
         <v>217.2519426784705</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7445985036381</v>
+        <v>231.882103826723</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>371.4093508912297</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>383.7403041670151</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>377.4214026677435</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>127.6377393258621</v>
+        <v>103.775244648947</v>
       </c>
       <c r="C39" t="n">
-        <v>116.3308444476703</v>
+        <v>92.46834977075514</v>
       </c>
       <c r="D39" t="n">
-        <v>78.93906422295269</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E39" t="n">
-        <v>79.79241971287702</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F39" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>71.91616339673033</v>
+        <v>92.93424870815717</v>
       </c>
       <c r="H39" t="n">
         <v>51.11371057362263</v>
@@ -25523,10 +25523,10 @@
         <v>77.18643047130134</v>
       </c>
       <c r="T39" t="n">
-        <v>139.7396997551877</v>
+        <v>115.8772050782726</v>
       </c>
       <c r="U39" t="n">
-        <v>159.0462440902488</v>
+        <v>182.908738767164</v>
       </c>
       <c r="V39" t="n">
         <v>202.9234074721264</v>
@@ -25535,7 +25535,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X39" t="n">
-        <v>161.8425727710037</v>
+        <v>140.8244874595769</v>
       </c>
       <c r="Y39" t="n">
         <v>138.2959597602405</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>39.82119477246847</v>
+        <v>18.80310946104164</v>
       </c>
       <c r="S40" t="n">
-        <v>141.9561475121862</v>
+        <v>165.8186421891014</v>
       </c>
       <c r="T40" t="n">
-        <v>219.2467235681513</v>
+        <v>240.2648088795781</v>
       </c>
       <c r="U40" t="n">
         <v>253.5119245026758</v>
       </c>
       <c r="V40" t="n">
-        <v>255.0318580411362</v>
+        <v>255.0318580411363</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -25617,7 +25617,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>200.2168459502403</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>398.7692280099178</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,7 +25639,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>397.0104453155786</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>376.0986545356089</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>95.70068803234793</v>
+        <v>74.6826027209211</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2519426784705</v>
+        <v>193.3894480015554</v>
       </c>
       <c r="U41" t="n">
-        <v>231.882103826723</v>
+        <v>255.7445985036381</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>371.4093508912297</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25715,16 +25715,16 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E42" t="n">
-        <v>103.6549143897921</v>
+        <v>79.79241971287702</v>
       </c>
       <c r="F42" t="n">
-        <v>92.70937201392488</v>
+        <v>68.84687733700976</v>
       </c>
       <c r="G42" t="n">
-        <v>71.91616339673034</v>
+        <v>69.07175403124205</v>
       </c>
       <c r="H42" t="n">
-        <v>27.25121589670751</v>
+        <v>51.11371057362263</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25760,13 +25760,13 @@
         <v>77.18643047130134</v>
       </c>
       <c r="T42" t="n">
-        <v>115.8772050782726</v>
+        <v>139.7396997551877</v>
       </c>
       <c r="U42" t="n">
-        <v>182.908738767164</v>
+        <v>161.8906534557371</v>
       </c>
       <c r="V42" t="n">
-        <v>179.0609127952113</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W42" t="n">
         <v>194.556163395115</v>
@@ -25803,10 +25803,10 @@
         <v>164.4443446983998</v>
       </c>
       <c r="H43" t="n">
-        <v>141.0241776843491</v>
+        <v>117.161683007434</v>
       </c>
       <c r="I43" t="n">
-        <v>94.25831015433721</v>
+        <v>70.39581547742209</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>15.95870009555335</v>
+        <v>18.80310946104164</v>
       </c>
       <c r="S43" t="n">
         <v>141.9561475121862</v>
       </c>
       <c r="T43" t="n">
-        <v>216.402314202663</v>
+        <v>240.2648088795781</v>
       </c>
       <c r="U43" t="n">
         <v>277.3744191795909</v>
       </c>
       <c r="V43" t="n">
-        <v>257.8762674066245</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -25867,7 +25867,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>398.7692280099178</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25879,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>399.9490397655255</v>
+        <v>399.961149212524</v>
       </c>
       <c r="H44" t="n">
-        <v>291.3397495564552</v>
+        <v>291.4637654305288</v>
       </c>
       <c r="I44" t="n">
-        <v>21.18437155743263</v>
+        <v>21.65122101284321</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.55317527553734</v>
+        <v>71.83819335543281</v>
       </c>
       <c r="T44" t="n">
-        <v>217.1989335742344</v>
+        <v>196.2338573670437</v>
       </c>
       <c r="U44" t="n">
-        <v>228.6414854093998</v>
+        <v>231.882103826723</v>
       </c>
       <c r="V44" t="n">
-        <v>326.8123763865347</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>365.3252918641782</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -25946,7 +25946,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C45" t="n">
-        <v>116.3308444476703</v>
+        <v>92.46834977075514</v>
       </c>
       <c r="D45" t="n">
         <v>102.8015588998678</v>
@@ -25955,13 +25955,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>68.83780328059314</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>65.82562524433426</v>
+        <v>92.93424870815717</v>
       </c>
       <c r="H45" t="n">
-        <v>23.94899152457988</v>
+        <v>51.11371057362263</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>77.06608355974814</v>
+        <v>56.16834515987449</v>
       </c>
       <c r="T45" t="n">
-        <v>139.7135843332946</v>
+        <v>115.8772050782726</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9083125089176</v>
+        <v>182.908738767164</v>
       </c>
       <c r="V45" t="n">
-        <v>175.821263133648</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>194.556163395115</v>
+        <v>170.6936687181998</v>
       </c>
       <c r="X45" t="n">
         <v>161.8425727710037</v>
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>137.4439794501966</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>143.0410121447068</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4389128173588</v>
+        <v>164.4443446983998</v>
       </c>
       <c r="H46" t="n">
-        <v>140.9758833238215</v>
+        <v>117.161683007434</v>
       </c>
       <c r="I46" t="n">
-        <v>66.99281433873688</v>
+        <v>94.25831015433721</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.70538891524155</v>
+        <v>39.82119477246847</v>
       </c>
       <c r="S46" t="n">
-        <v>165.7239793167789</v>
+        <v>141.9561475121862</v>
       </c>
       <c r="T46" t="n">
-        <v>240.2415999333123</v>
+        <v>216.402314202663</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3741228951705</v>
+        <v>277.3744191795909</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26091,7 +26091,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>203.0612553157285</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>60703.16928293434</v>
+        <v>60703.16928293433</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>60703.16928293434</v>
+        <v>60703.16928293433</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72016.04884564209</v>
+        <v>72016.04884564207</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>74610.25424715261</v>
+        <v>74610.2542471526</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74610.25424715261</v>
+        <v>74610.25424715262</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79244.33895665854</v>
+        <v>79244.33895665851</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79244.33895665851</v>
+        <v>79244.33895665854</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>79244.33895665852</v>
+        <v>79244.33895665855</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>79244.33895665852</v>
+        <v>79244.3389566585</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>79244.33895665852</v>
+        <v>79244.33895665854</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>81945.53395000035</v>
+        <v>79244.33895665854</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14290.01857365617</v>
+        <v>14290.01857365618</v>
       </c>
       <c r="C2" t="n">
         <v>14290.01857365617</v>
@@ -26322,7 +26322,7 @@
         <v>14332.55642193312</v>
       </c>
       <c r="E2" t="n">
-        <v>17571.8654883609</v>
+        <v>17571.86548836089</v>
       </c>
       <c r="F2" t="n">
         <v>17571.86548836089</v>
@@ -26331,16 +26331,16 @@
         <v>18232.61179762146</v>
       </c>
       <c r="H2" t="n">
-        <v>18232.61179762147</v>
+        <v>18232.61179762146</v>
       </c>
       <c r="I2" t="n">
-        <v>19417.98559915716</v>
+        <v>19417.98559915718</v>
       </c>
       <c r="J2" t="n">
-        <v>19417.98559915716</v>
+        <v>19417.98559915718</v>
       </c>
       <c r="K2" t="n">
-        <v>19417.98559915718</v>
+        <v>19417.98559915717</v>
       </c>
       <c r="L2" t="n">
         <v>19417.98559915717</v>
@@ -26355,7 +26355,7 @@
         <v>19417.98559915717</v>
       </c>
       <c r="P2" t="n">
-        <v>20094.49963844919</v>
+        <v>19417.98559915717</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>3221.566157245948</v>
       </c>
       <c r="E3" t="n">
-        <v>22482.30190260365</v>
+        <v>22482.30190260366</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5899.732757549118</v>
+        <v>5899.732757549141</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3752.527353679233</v>
+        <v>3752.527353679236</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>760.5180473070807</v>
+        <v>760.5180473070815</v>
       </c>
       <c r="P3" t="n">
-        <v>2770.633576355326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,22 +26420,22 @@
         <v>3543.094988309629</v>
       </c>
       <c r="C4" t="n">
-        <v>3543.094988309628</v>
+        <v>3543.094988309629</v>
       </c>
       <c r="D4" t="n">
         <v>2989.732879230329</v>
       </c>
       <c r="E4" t="n">
-        <v>1741.644506764842</v>
+        <v>1741.644506764841</v>
       </c>
       <c r="F4" t="n">
-        <v>1741.644506764842</v>
+        <v>1741.644506764841</v>
       </c>
       <c r="G4" t="n">
         <v>1695.605089419735</v>
       </c>
       <c r="H4" t="n">
-        <v>1695.605089419734</v>
+        <v>1695.605089419735</v>
       </c>
       <c r="I4" t="n">
         <v>1593.088958444203</v>
@@ -26459,7 +26459,7 @@
         <v>1593.088958444203</v>
       </c>
       <c r="P4" t="n">
-        <v>1591.037061730537</v>
+        <v>1593.088958444203</v>
       </c>
     </row>
     <row r="5">
@@ -26490,10 +26490,10 @@
         <v>2794.313130654941</v>
       </c>
       <c r="I5" t="n">
+        <v>3264.871964090895</v>
+      </c>
+      <c r="J5" t="n">
         <v>3264.871964090894</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3264.871964090893</v>
       </c>
       <c r="K5" t="n">
         <v>3264.871964090893</v>
@@ -26511,7 +26511,7 @@
         <v>3264.871964090893</v>
       </c>
       <c r="P5" t="n">
-        <v>3527.509167225183</v>
+        <v>3264.871964090893</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70386.70346846385</v>
+        <v>-71740.73857725135</v>
       </c>
       <c r="C6" t="n">
-        <v>-23931.63818375237</v>
+        <v>-25285.67329253987</v>
       </c>
       <c r="D6" t="n">
-        <v>-26639.30928107248</v>
+        <v>-27993.04054808658</v>
       </c>
       <c r="E6" t="n">
-        <v>-9188.627866705985</v>
+        <v>-10519.22121181704</v>
       </c>
       <c r="F6" t="n">
-        <v>13293.67403589766</v>
+        <v>11963.08069078662</v>
       </c>
       <c r="G6" t="n">
-        <v>10536.1085035637</v>
+        <v>9210.23477494737</v>
       </c>
       <c r="H6" t="n">
-        <v>13742.69357754679</v>
+        <v>12416.81984893046</v>
       </c>
       <c r="I6" t="n">
-        <v>8660.291919072948</v>
+        <v>7342.885146181874</v>
       </c>
       <c r="J6" t="n">
-        <v>14560.02467662207</v>
+        <v>13242.61790373101</v>
       </c>
       <c r="K6" t="n">
-        <v>14560.02467662208</v>
+        <v>13242.617903731</v>
       </c>
       <c r="L6" t="n">
-        <v>14560.02467662207</v>
+        <v>13242.617903731</v>
       </c>
       <c r="M6" t="n">
-        <v>10807.49732294285</v>
+        <v>9490.090550051769</v>
       </c>
       <c r="N6" t="n">
-        <v>14560.02467662207</v>
+        <v>13242.617903731</v>
       </c>
       <c r="O6" t="n">
-        <v>13799.50662931499</v>
+        <v>12482.09985642392</v>
       </c>
       <c r="P6" t="n">
-        <v>12205.31983313814</v>
+        <v>13242.617903731</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>51.97094800593192</v>
       </c>
       <c r="E3" t="n">
-        <v>74.3585892991769</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="F3" t="n">
         <v>74.35858929917691</v>
@@ -26755,13 +26755,13 @@
         <v>77.36880956975664</v>
       </c>
       <c r="H3" t="n">
-        <v>77.36880956975664</v>
+        <v>77.36880956975662</v>
       </c>
       <c r="I3" t="n">
-        <v>83.21249026304835</v>
+        <v>83.21249026304837</v>
       </c>
       <c r="J3" t="n">
-        <v>83.21249026304835</v>
+        <v>83.21249026304837</v>
       </c>
       <c r="K3" t="n">
         <v>83.21249026304835</v>
@@ -26779,7 +26779,7 @@
         <v>83.21249026304835</v>
       </c>
       <c r="P3" t="n">
-        <v>86.2247152039311</v>
+        <v>83.21249026304835</v>
       </c>
     </row>
     <row r="4">
@@ -26822,7 +26822,7 @@
         <v>23.86249467691512</v>
       </c>
       <c r="M4" t="n">
-        <v>23.86249467691511</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="N4" t="n">
         <v>23.86249467691512</v>
@@ -26831,7 +26831,7 @@
         <v>23.86249467691512</v>
       </c>
       <c r="P4" t="n">
-        <v>27.10214433847837</v>
+        <v>23.86249467691512</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>3.761692542679064</v>
       </c>
       <c r="E3" t="n">
-        <v>22.38764129324498</v>
+        <v>22.38764129324499</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.843680693291716</v>
+        <v>5.843680693291745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.012224940882746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.644187406615018</v>
+        <v>5.644187406615021</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.05805425947911</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.160253010820984</v>
+        <v>3.160253010820988</v>
       </c>
       <c r="P4" t="n">
-        <v>3.239649661563252</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31047,7 +31047,7 @@
         <v>1.984816231208193</v>
       </c>
       <c r="I2" t="n">
-        <v>7.471707824108769</v>
+        <v>7.471707824108768</v>
       </c>
       <c r="J2" t="n">
         <v>16.44904641557491</v>
@@ -31059,7 +31059,7 @@
         <v>30.58404856891367</v>
       </c>
       <c r="M2" t="n">
-        <v>34.03064694818853</v>
+        <v>34.03064694818854</v>
       </c>
       <c r="N2" t="n">
         <v>34.58129839375625</v>
@@ -31156,7 +31156,7 @@
         <v>6.438209625828375</v>
       </c>
       <c r="S3" t="n">
-        <v>1.926096197045997</v>
+        <v>1.926096197045998</v>
       </c>
       <c r="T3" t="n">
         <v>0.4179651487804657</v>
@@ -31232,7 +31232,7 @@
         <v>7.279597574951182</v>
       </c>
       <c r="R4" t="n">
-        <v>3.90890127084014</v>
+        <v>3.908901270840141</v>
       </c>
       <c r="S4" t="n">
         <v>1.51503512660747</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2989290022077461</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H11" t="n">
         <v>3.061406643860081</v>
@@ -31761,13 +31761,13 @@
         <v>11.52446035761414</v>
       </c>
       <c r="J11" t="n">
-        <v>25.37122540112971</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K11" t="n">
         <v>38.02489006458362</v>
       </c>
       <c r="L11" t="n">
-        <v>47.17323851589893</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M11" t="n">
         <v>52.48931715891094</v>
@@ -31776,10 +31776,10 @@
         <v>52.33767709392515</v>
       </c>
       <c r="O11" t="n">
-        <v>50.36617392073042</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P11" t="n">
-        <v>42.98636417872668</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q11" t="n">
         <v>32.28096928716177</v>
@@ -31788,13 +31788,13 @@
         <v>18.77759893493235</v>
       </c>
       <c r="S11" t="n">
-        <v>6.811844637809021</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T11" t="n">
-        <v>1.308561707164409</v>
+        <v>1.30856170716441</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02391432017661968</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1599411166057767</v>
+        <v>0.1599411166057768</v>
       </c>
       <c r="H12" t="n">
         <v>1.544694468271581</v>
       </c>
       <c r="I12" t="n">
-        <v>5.506744584891875</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J12" t="n">
-        <v>15.11092803861858</v>
+        <v>15.11092803861859</v>
       </c>
       <c r="K12" t="n">
-        <v>25.82698285120562</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>34.72756569109201</v>
+        <v>34.72756569109202</v>
       </c>
       <c r="M12" t="n">
-        <v>37.14013846750463</v>
+        <v>31.79699037975684</v>
       </c>
       <c r="N12" t="n">
         <v>36.40108247302079</v>
@@ -31858,19 +31858,19 @@
         <v>38.05406031804198</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q12" t="n">
         <v>20.41634323550231</v>
       </c>
       <c r="R12" t="n">
-        <v>9.93037915206744</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S12" t="n">
-        <v>2.970836091339754</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6446749393013542</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U12" t="n">
         <v>0.010522441881959</v>
@@ -31913,22 +31913,22 @@
         <v>0.1340892593919583</v>
       </c>
       <c r="H13" t="n">
-        <v>1.19217541532123</v>
+        <v>1.192175415321231</v>
       </c>
       <c r="I13" t="n">
-        <v>4.032429727896348</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J13" t="n">
-        <v>9.480110639011453</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K13" t="n">
-        <v>15.57873395481115</v>
+        <v>15.57873395481116</v>
       </c>
       <c r="L13" t="n">
         <v>19.93541589178261</v>
       </c>
       <c r="M13" t="n">
-        <v>21.01910090632306</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N13" t="n">
         <v>20.51931366677124</v>
@@ -31937,22 +31937,22 @@
         <v>18.95290731841972</v>
       </c>
       <c r="P13" t="n">
-        <v>16.21748642682375</v>
+        <v>16.21748642682376</v>
       </c>
       <c r="Q13" t="n">
         <v>11.22814698417571</v>
       </c>
       <c r="R13" t="n">
-        <v>6.029140699569325</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S13" t="n">
         <v>2.336810093221673</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5729268355838218</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U13" t="n">
-        <v>0.007313959603197736</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32086,13 +32086,13 @@
         <v>34.72756569109202</v>
       </c>
       <c r="M15" t="n">
-        <v>38.1548347718071</v>
+        <v>28.36924136188455</v>
       </c>
       <c r="N15" t="n">
         <v>36.40108247302079</v>
       </c>
       <c r="O15" t="n">
-        <v>28.26846690811943</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P15" t="n">
         <v>30.54173831044873</v>
@@ -32320,7 +32320,7 @@
         <v>26.87252322575217</v>
       </c>
       <c r="L18" t="n">
-        <v>36.13342375236606</v>
+        <v>27.3123227383189</v>
       </c>
       <c r="M18" t="n">
         <v>41.31508778262809</v>
@@ -32332,7 +32332,7 @@
         <v>39.59458313896781</v>
       </c>
       <c r="P18" t="n">
-        <v>22.95704267508552</v>
+        <v>31.77814368913269</v>
       </c>
       <c r="Q18" t="n">
         <v>21.24284748790752</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3110303902301772</v>
+        <v>0.3110303902301771</v>
       </c>
       <c r="H20" t="n">
-        <v>3.185339983944803</v>
+        <v>3.185339983944802</v>
       </c>
       <c r="I20" t="n">
         <v>11.99099911934892</v>
@@ -32478,19 +32478,19 @@
         <v>39.56423200124193</v>
       </c>
       <c r="L20" t="n">
-        <v>49.08292830624873</v>
+        <v>49.08292830624872</v>
       </c>
       <c r="M20" t="n">
-        <v>54.61421500850464</v>
+        <v>54.61421500850463</v>
       </c>
       <c r="N20" t="n">
-        <v>55.49793010474614</v>
+        <v>55.49793010474612</v>
       </c>
       <c r="O20" t="n">
-        <v>52.40512166189481</v>
+        <v>52.4051216618948</v>
       </c>
       <c r="P20" t="n">
-        <v>44.7265589030873</v>
+        <v>44.72655890308729</v>
       </c>
       <c r="Q20" t="n">
         <v>33.58778305296907</v>
@@ -32499,7 +32499,7 @@
         <v>19.53776275029638</v>
       </c>
       <c r="S20" t="n">
-        <v>7.08760501737017</v>
+        <v>7.087605017370168</v>
       </c>
       <c r="T20" t="n">
         <v>1.361535533232601</v>
@@ -32548,10 +32548,10 @@
         <v>1.607227534647209</v>
       </c>
       <c r="I21" t="n">
-        <v>5.729671274741412</v>
+        <v>5.729671274741411</v>
       </c>
       <c r="J21" t="n">
-        <v>15.72265591454838</v>
+        <v>15.72265591454837</v>
       </c>
       <c r="K21" t="n">
         <v>26.87252322575217</v>
@@ -32560,7 +32560,7 @@
         <v>36.13342375236606</v>
       </c>
       <c r="M21" t="n">
-        <v>41.31508778262809</v>
+        <v>32.49398676858095</v>
       </c>
       <c r="N21" t="n">
         <v>39.56133548384177</v>
@@ -32569,7 +32569,7 @@
         <v>39.59458313896781</v>
       </c>
       <c r="P21" t="n">
-        <v>22.95704267508552</v>
+        <v>31.77814368913268</v>
       </c>
       <c r="Q21" t="n">
         <v>21.24284748790752</v>
@@ -32578,10 +32578,10 @@
         <v>10.33238554971203</v>
       </c>
       <c r="S21" t="n">
-        <v>3.091102910640747</v>
+        <v>3.091102910640746</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6707729810811918</v>
+        <v>0.6707729810811917</v>
       </c>
       <c r="U21" t="n">
         <v>0.01094841644855047</v>
@@ -32624,22 +32624,22 @@
         <v>0.1395175254536595</v>
       </c>
       <c r="H22" t="n">
-        <v>1.240437635397083</v>
+        <v>1.240437635397082</v>
       </c>
       <c r="I22" t="n">
-        <v>4.195672492733689</v>
+        <v>4.195672492733688</v>
       </c>
       <c r="J22" t="n">
-        <v>9.863889049573725</v>
+        <v>9.863889049573723</v>
       </c>
       <c r="K22" t="n">
         <v>16.20939977543425</v>
       </c>
       <c r="L22" t="n">
-        <v>20.74245101153771</v>
+        <v>20.7424510115377</v>
       </c>
       <c r="M22" t="n">
-        <v>21.87000628543137</v>
+        <v>21.87000628543136</v>
       </c>
       <c r="N22" t="n">
         <v>21.34998641783138</v>
@@ -32648,22 +32648,22 @@
         <v>19.72016805230453</v>
       </c>
       <c r="P22" t="n">
-        <v>16.87401053304987</v>
+        <v>16.87401053304986</v>
       </c>
       <c r="Q22" t="n">
         <v>11.68269024503325</v>
       </c>
       <c r="R22" t="n">
-        <v>6.273215280852725</v>
+        <v>6.273215280852723</v>
       </c>
       <c r="S22" t="n">
-        <v>2.431409966315138</v>
+        <v>2.431409966315137</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5961203360292722</v>
+        <v>0.5961203360292721</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00761004684292689</v>
+        <v>0.007610046842926889</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,31 +32703,31 @@
         <v>0.3345225739218022</v>
       </c>
       <c r="H23" t="n">
-        <v>3.425929310176657</v>
+        <v>3.425929310176658</v>
       </c>
       <c r="I23" t="n">
         <v>12.89668153112029</v>
       </c>
       <c r="J23" t="n">
-        <v>28.39218530839558</v>
+        <v>28.39218530839559</v>
       </c>
       <c r="K23" t="n">
         <v>42.55252586250548</v>
       </c>
       <c r="L23" t="n">
-        <v>52.79017108416484</v>
+        <v>52.79017108416485</v>
       </c>
       <c r="M23" t="n">
         <v>58.73923690814669</v>
       </c>
       <c r="N23" t="n">
-        <v>59.68969917130201</v>
+        <v>59.68969917130202</v>
       </c>
       <c r="O23" t="n">
-        <v>56.36329032686709</v>
+        <v>56.3632903268671</v>
       </c>
       <c r="P23" t="n">
-        <v>48.10476428317259</v>
+        <v>48.1047642831726</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -32736,7 +32736,7 @@
         <v>21.01345363411543</v>
       </c>
       <c r="S23" t="n">
-        <v>7.622933153243075</v>
+        <v>7.622933153243076</v>
       </c>
       <c r="T23" t="n">
         <v>1.46437256734269</v>
@@ -32785,31 +32785,31 @@
         <v>1.728621731690873</v>
       </c>
       <c r="I24" t="n">
-        <v>6.162434420423865</v>
+        <v>6.162434420423866</v>
       </c>
       <c r="J24" t="n">
-        <v>16.91019106373891</v>
+        <v>16.91019106373892</v>
       </c>
       <c r="K24" t="n">
         <v>28.90220994353445</v>
       </c>
       <c r="L24" t="n">
-        <v>38.86258802332273</v>
+        <v>38.86258802332274</v>
       </c>
       <c r="M24" t="n">
-        <v>45.35080719336135</v>
+        <v>45.35080719336136</v>
       </c>
       <c r="N24" t="n">
-        <v>45.20552289045679</v>
+        <v>38.90357028119601</v>
       </c>
       <c r="O24" t="n">
-        <v>42.58516942735456</v>
+        <v>42.58516942735457</v>
       </c>
       <c r="P24" t="n">
-        <v>27.77611477836717</v>
+        <v>34.17835284030755</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.84732374165811</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>11.1127925675822</v>
@@ -32818,10 +32818,10 @@
         <v>3.324574493056694</v>
       </c>
       <c r="T24" t="n">
-        <v>0.721436590110768</v>
+        <v>0.7214365901107681</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01177535239571439</v>
+        <v>0.0117753523957144</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32870,19 +32870,19 @@
         <v>10.60891043894634</v>
       </c>
       <c r="K25" t="n">
-        <v>17.43369877970094</v>
+        <v>17.43369877970095</v>
       </c>
       <c r="L25" t="n">
-        <v>22.3091322256048</v>
+        <v>22.30913222560481</v>
       </c>
       <c r="M25" t="n">
-        <v>23.52185196074987</v>
+        <v>23.52185196074988</v>
       </c>
       <c r="N25" t="n">
         <v>22.96255489504744</v>
       </c>
       <c r="O25" t="n">
-        <v>21.20963604278485</v>
+        <v>21.20963604278486</v>
       </c>
       <c r="P25" t="n">
         <v>18.14850771245237</v>
@@ -32891,16 +32891,16 @@
         <v>12.5650860297203</v>
       </c>
       <c r="R25" t="n">
-        <v>6.747032407230114</v>
+        <v>6.747032407230116</v>
       </c>
       <c r="S25" t="n">
-        <v>2.615054816955141</v>
+        <v>2.615054816955142</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6411454167808641</v>
+        <v>0.6411454167808642</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00818483510784083</v>
+        <v>0.008184835107840831</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,31 +32940,31 @@
         <v>0.3345225739218022</v>
       </c>
       <c r="H26" t="n">
-        <v>3.425929310176657</v>
+        <v>3.425929310176658</v>
       </c>
       <c r="I26" t="n">
         <v>12.89668153112029</v>
       </c>
       <c r="J26" t="n">
-        <v>28.39218530839558</v>
+        <v>28.39218530839559</v>
       </c>
       <c r="K26" t="n">
         <v>42.55252586250548</v>
       </c>
       <c r="L26" t="n">
-        <v>52.79017108416484</v>
+        <v>52.79017108416485</v>
       </c>
       <c r="M26" t="n">
         <v>58.73923690814669</v>
       </c>
       <c r="N26" t="n">
-        <v>59.68969917130201</v>
+        <v>59.68969917130202</v>
       </c>
       <c r="O26" t="n">
-        <v>56.36329032686709</v>
+        <v>56.3632903268671</v>
       </c>
       <c r="P26" t="n">
-        <v>48.10476428317259</v>
+        <v>48.1047642831726</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -32973,7 +32973,7 @@
         <v>21.01345363411543</v>
       </c>
       <c r="S26" t="n">
-        <v>7.622933153243075</v>
+        <v>7.622933153243076</v>
       </c>
       <c r="T26" t="n">
         <v>1.46437256734269</v>
@@ -33022,31 +33022,31 @@
         <v>1.728621731690873</v>
       </c>
       <c r="I27" t="n">
-        <v>6.162434420423865</v>
+        <v>6.162434420423866</v>
       </c>
       <c r="J27" t="n">
-        <v>16.91019106373891</v>
+        <v>16.91019106373892</v>
       </c>
       <c r="K27" t="n">
-        <v>22.60025733427367</v>
+        <v>28.90220994353445</v>
       </c>
       <c r="L27" t="n">
-        <v>38.86258802332273</v>
+        <v>38.86258802332274</v>
       </c>
       <c r="M27" t="n">
-        <v>45.35080719336135</v>
+        <v>45.35080719336136</v>
       </c>
       <c r="N27" t="n">
-        <v>45.20552289045679</v>
+        <v>45.20552289045678</v>
       </c>
       <c r="O27" t="n">
-        <v>42.58516942735456</v>
+        <v>42.58516942735457</v>
       </c>
       <c r="P27" t="n">
-        <v>34.17835284030754</v>
+        <v>27.77611477836711</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>22.84732374165811</v>
       </c>
       <c r="R27" t="n">
         <v>11.1127925675822</v>
@@ -33055,10 +33055,10 @@
         <v>3.324574493056694</v>
       </c>
       <c r="T27" t="n">
-        <v>0.721436590110768</v>
+        <v>0.7214365901107681</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01177535239571439</v>
+        <v>0.0117753523957144</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33107,19 +33107,19 @@
         <v>10.60891043894634</v>
       </c>
       <c r="K28" t="n">
-        <v>17.43369877970094</v>
+        <v>17.43369877970095</v>
       </c>
       <c r="L28" t="n">
-        <v>22.3091322256048</v>
+        <v>22.30913222560481</v>
       </c>
       <c r="M28" t="n">
-        <v>23.52185196074987</v>
+        <v>23.52185196074988</v>
       </c>
       <c r="N28" t="n">
         <v>22.96255489504744</v>
       </c>
       <c r="O28" t="n">
-        <v>21.20963604278485</v>
+        <v>21.20963604278486</v>
       </c>
       <c r="P28" t="n">
         <v>18.14850771245237</v>
@@ -33128,16 +33128,16 @@
         <v>12.5650860297203</v>
       </c>
       <c r="R28" t="n">
-        <v>6.747032407230114</v>
+        <v>6.747032407230116</v>
       </c>
       <c r="S28" t="n">
-        <v>2.615054816955141</v>
+        <v>2.615054816955142</v>
       </c>
       <c r="T28" t="n">
-        <v>0.6411454167808641</v>
+        <v>0.6411454167808642</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00818483510784083</v>
+        <v>0.008184835107840831</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>16.91019106373891</v>
       </c>
       <c r="K30" t="n">
-        <v>22.49997188159405</v>
+        <v>28.90220994353445</v>
       </c>
       <c r="L30" t="n">
         <v>38.86258802332273</v>
@@ -33274,10 +33274,10 @@
         <v>45.35080719336135</v>
       </c>
       <c r="N30" t="n">
-        <v>45.20552289045678</v>
+        <v>45.20552289045679</v>
       </c>
       <c r="O30" t="n">
-        <v>42.58516942735456</v>
+        <v>36.18293136541418</v>
       </c>
       <c r="P30" t="n">
         <v>34.17835284030754</v>
@@ -33502,7 +33502,7 @@
         <v>16.91019106373891</v>
       </c>
       <c r="K33" t="n">
-        <v>28.90220994353445</v>
+        <v>22.49997188159407</v>
       </c>
       <c r="L33" t="n">
         <v>38.86258802332273</v>
@@ -33517,10 +33517,10 @@
         <v>42.58516942735456</v>
       </c>
       <c r="P33" t="n">
-        <v>27.87640023104676</v>
+        <v>34.17835284030754</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>22.84732374165811</v>
       </c>
       <c r="R33" t="n">
         <v>11.1127925675822</v>
@@ -33739,7 +33739,7 @@
         <v>16.91019106373891</v>
       </c>
       <c r="K36" t="n">
-        <v>22.49997188159402</v>
+        <v>28.90220994353445</v>
       </c>
       <c r="L36" t="n">
         <v>38.86258802332273</v>
@@ -33748,16 +33748,16 @@
         <v>45.35080719336135</v>
       </c>
       <c r="N36" t="n">
-        <v>45.20552289045678</v>
+        <v>45.20552289045679</v>
       </c>
       <c r="O36" t="n">
         <v>42.58516942735456</v>
       </c>
       <c r="P36" t="n">
-        <v>34.17835284030754</v>
+        <v>27.87640023104676</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.84732374165811</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>11.1127925675822</v>
@@ -33976,16 +33976,16 @@
         <v>16.91019106373891</v>
       </c>
       <c r="K39" t="n">
-        <v>28.90220994353445</v>
+        <v>22.49997188159405</v>
       </c>
       <c r="L39" t="n">
         <v>38.86258802332273</v>
       </c>
       <c r="M39" t="n">
-        <v>38.94856913142097</v>
+        <v>45.35080719336135</v>
       </c>
       <c r="N39" t="n">
-        <v>45.20552289045679</v>
+        <v>45.20552289045678</v>
       </c>
       <c r="O39" t="n">
         <v>42.58516942735456</v>
@@ -34222,10 +34222,10 @@
         <v>45.35080719336135</v>
       </c>
       <c r="N42" t="n">
-        <v>38.903570281196</v>
+        <v>45.20552289045678</v>
       </c>
       <c r="O42" t="n">
-        <v>42.58516942735456</v>
+        <v>36.28321681809378</v>
       </c>
       <c r="P42" t="n">
         <v>34.17835284030754</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3466320209203257</v>
+        <v>0.3345225739218022</v>
       </c>
       <c r="H44" t="n">
-        <v>3.549945184250287</v>
+        <v>3.425929310176657</v>
       </c>
       <c r="I44" t="n">
-        <v>13.36353098653087</v>
+        <v>12.89668153112029</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>28.39218530839558</v>
       </c>
       <c r="K44" t="n">
-        <v>44.09289293114392</v>
+        <v>42.55252586250548</v>
       </c>
       <c r="L44" t="n">
-        <v>54.70113264138435</v>
+        <v>52.79017108416484</v>
       </c>
       <c r="M44" t="n">
-        <v>60.86554984342619</v>
+        <v>58.73923690814669</v>
       </c>
       <c r="N44" t="n">
-        <v>61.85041807286608</v>
+        <v>59.68969917130201</v>
       </c>
       <c r="O44" t="n">
-        <v>58.40359591483958</v>
+        <v>56.36329032686709</v>
       </c>
       <c r="P44" t="n">
-        <v>49.84611789836903</v>
+        <v>48.10476428317259</v>
       </c>
       <c r="Q44" t="n">
-        <v>37.43235864915985</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>21.77412368413643</v>
+        <v>21.01345363411543</v>
       </c>
       <c r="S44" t="n">
-        <v>7.898877176721931</v>
+        <v>7.622933153243075</v>
       </c>
       <c r="T44" t="n">
-        <v>1.517381671578727</v>
+        <v>1.46437256734269</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02773056167362606</v>
+        <v>0.02676180591374417</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.185464481759399</v>
+        <v>0.1789853564148587</v>
       </c>
       <c r="H45" t="n">
-        <v>1.791196442255248</v>
+        <v>1.728621731690873</v>
       </c>
       <c r="I45" t="n">
-        <v>6.385509569347729</v>
+        <v>6.162434420423865</v>
       </c>
       <c r="J45" t="n">
-        <v>17.52232632271585</v>
+        <v>16.91019106373891</v>
       </c>
       <c r="K45" t="n">
-        <v>29.94844660059558</v>
+        <v>28.90220994353445</v>
       </c>
       <c r="L45" t="n">
-        <v>40.26938232236424</v>
+        <v>38.86258802332273</v>
       </c>
       <c r="M45" t="n">
-        <v>46.99246978614244</v>
+        <v>45.35080719336135</v>
       </c>
       <c r="N45" t="n">
-        <v>48.23622063092368</v>
+        <v>38.903570281196</v>
       </c>
       <c r="O45" t="n">
-        <v>39.82096035106558</v>
+        <v>42.58516942735456</v>
       </c>
       <c r="P45" t="n">
-        <v>35.4155816089505</v>
+        <v>34.17835284030754</v>
       </c>
       <c r="Q45" t="n">
-        <v>23.67437840844538</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>11.51506668327216</v>
+        <v>11.1127925675822</v>
       </c>
       <c r="S45" t="n">
-        <v>3.444921404609886</v>
+        <v>3.324574493056694</v>
       </c>
       <c r="T45" t="n">
-        <v>0.747552012003893</v>
+        <v>0.721436590110768</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01220161064206573</v>
+        <v>0.01177535239571439</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1554871913513511</v>
+        <v>0.1500553103104151</v>
       </c>
       <c r="H46" t="n">
-        <v>1.38242248310565</v>
+        <v>1.334128122578055</v>
       </c>
       <c r="I46" t="n">
-        <v>4.675923899911543</v>
+        <v>4.512572422789574</v>
       </c>
       <c r="J46" t="n">
-        <v>10.99294442854053</v>
+        <v>10.60891043894634</v>
       </c>
       <c r="K46" t="n">
-        <v>18.06478459518425</v>
+        <v>17.43369877970094</v>
       </c>
       <c r="L46" t="n">
-        <v>23.11670479418179</v>
+        <v>22.3091322256048</v>
       </c>
       <c r="M46" t="n">
-        <v>24.37332400428498</v>
+        <v>23.52185196074987</v>
       </c>
       <c r="N46" t="n">
-        <v>23.79378083652087</v>
+        <v>22.96255489504744</v>
       </c>
       <c r="O46" t="n">
-        <v>21.97740773755281</v>
+        <v>21.20963604278485</v>
       </c>
       <c r="P46" t="n">
-        <v>18.80546903398523</v>
+        <v>18.14850771245237</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.01993199579359</v>
+        <v>12.5650860297203</v>
       </c>
       <c r="R46" t="n">
-        <v>6.991269531125296</v>
+        <v>6.747032407230114</v>
       </c>
       <c r="S46" t="n">
-        <v>2.709717689277637</v>
+        <v>2.615054816955141</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6643543630466819</v>
+        <v>0.6411454167808641</v>
       </c>
       <c r="U46" t="n">
-        <v>0.008481119528255527</v>
+        <v>0.00818483510784083</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2.260289269774276</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L11" t="n">
-        <v>8.861196083276006</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M11" t="n">
         <v>15.05805425947912</v>
@@ -35424,10 +35424,10 @@
         <v>15.05805425947912</v>
       </c>
       <c r="O11" t="n">
-        <v>12.97521456470636</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P11" t="n">
-        <v>5.411002368495382</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>3.427749017872287</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>12.21247897686245</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M12" t="n">
-        <v>14.04335795517665</v>
+        <v>8.700209867428866</v>
       </c>
       <c r="N12" t="n">
         <v>15.05805425947912</v>
       </c>
       <c r="O12" t="n">
-        <v>14.88217059581975</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35585,10 +35585,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>12.21247897686246</v>
       </c>
       <c r="M15" t="n">
-        <v>15.05805425947912</v>
+        <v>5.272460849556576</v>
       </c>
       <c r="N15" t="n">
         <v>15.05805425947912</v>
       </c>
       <c r="O15" t="n">
-        <v>5.096577185897206</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P15" t="n">
         <v>8.770897105620062</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="K16" t="n">
+        <v>15.05805425947912</v>
+      </c>
+      <c r="L16" t="n">
         <v>14.4496480267729</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>15.05805425947912</v>
-      </c>
-      <c r="N16" t="n">
-        <v>15.05805425947912</v>
-      </c>
-      <c r="O16" t="n">
-        <v>15.05805425947912</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>4.473289392418835</v>
       </c>
       <c r="L18" t="n">
-        <v>13.61833703813651</v>
+        <v>4.797236024089344</v>
       </c>
       <c r="M18" t="n">
         <v>18.21830727030011</v>
@@ -35980,7 +35980,7 @@
         <v>16.42269341674559</v>
       </c>
       <c r="P18" t="n">
-        <v>1.186201470256858</v>
+        <v>10.00730248430402</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="K19" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>17.48221404725768</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>18.21830727030011</v>
@@ -36059,10 +36059,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>17.48221404725768</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>3.799631206432593</v>
+        <v>3.799631206432586</v>
       </c>
       <c r="L20" t="n">
-        <v>10.77088587362581</v>
+        <v>10.77088587362579</v>
       </c>
       <c r="M20" t="n">
-        <v>17.18295210907283</v>
+        <v>17.18295210907282</v>
       </c>
       <c r="N20" t="n">
-        <v>18.21830727030012</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="O20" t="n">
-        <v>15.01416230587071</v>
+        <v>15.0141623058707</v>
       </c>
       <c r="P20" t="n">
-        <v>7.151197092856002</v>
+        <v>7.151197092855995</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>4.473289392418835</v>
+        <v>4.473289392418831</v>
       </c>
       <c r="L21" t="n">
-        <v>13.61833703813651</v>
+        <v>13.6183370381365</v>
       </c>
       <c r="M21" t="n">
-        <v>18.21830727030011</v>
+        <v>9.397206256252977</v>
       </c>
       <c r="N21" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="O21" t="n">
-        <v>16.42269341674559</v>
+        <v>16.42269341674558</v>
       </c>
       <c r="P21" t="n">
-        <v>1.186201470256858</v>
+        <v>10.00730248430402</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="K22" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.6010854422309855</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>16.8811286050267</v>
+      </c>
+      <c r="Q22" t="n">
         <v>18.21830727030011</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.601085442230989</v>
-      </c>
-      <c r="O22" t="n">
-        <v>16.88112860502669</v>
-      </c>
-      <c r="P22" t="n">
-        <v>18.21830727030011</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>6.787925067696136</v>
+        <v>6.787925067696143</v>
       </c>
       <c r="L23" t="n">
         <v>14.47812865154192</v>
       </c>
       <c r="M23" t="n">
-        <v>21.30797400871487</v>
+        <v>21.30797400871488</v>
       </c>
       <c r="N23" t="n">
-        <v>22.41007633685599</v>
+        <v>22.410076336856</v>
       </c>
       <c r="O23" t="n">
-        <v>18.97233097084299</v>
+        <v>18.972330970843</v>
       </c>
       <c r="P23" t="n">
-        <v>10.52940247294129</v>
+        <v>10.5294024729413</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>6.502976110201111</v>
+        <v>6.502976110201114</v>
       </c>
       <c r="L24" t="n">
-        <v>16.34750130909317</v>
+        <v>16.34750130909318</v>
       </c>
       <c r="M24" t="n">
-        <v>22.25402668103337</v>
+        <v>22.25402668103338</v>
       </c>
       <c r="N24" t="n">
-        <v>23.86249467691513</v>
+        <v>17.56054206765435</v>
       </c>
       <c r="O24" t="n">
-        <v>19.41327970513234</v>
+        <v>19.41327970513235</v>
       </c>
       <c r="P24" t="n">
-        <v>6.005273573538505</v>
+        <v>12.40751163547888</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1002854526796106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.29432722849722</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>23.86249467691513</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3903723299035775</v>
+        <v>0.3903723299035846</v>
       </c>
       <c r="M25" t="n">
-        <v>23.86249467691513</v>
+        <v>0.9464120692640599</v>
       </c>
       <c r="N25" t="n">
-        <v>2.213653919447047</v>
+        <v>2.213653919447051</v>
       </c>
       <c r="O25" t="n">
-        <v>23.86249467691513</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>19.34791515923315</v>
       </c>
       <c r="Q25" t="n">
         <v>23.86249467691513</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>6.787925067696136</v>
+        <v>6.787925067696143</v>
       </c>
       <c r="L26" t="n">
         <v>14.47812865154192</v>
       </c>
       <c r="M26" t="n">
-        <v>21.30797400871487</v>
+        <v>21.30797400871488</v>
       </c>
       <c r="N26" t="n">
-        <v>22.41007633685599</v>
+        <v>22.410076336856</v>
       </c>
       <c r="O26" t="n">
-        <v>18.97233097084299</v>
+        <v>18.972330970843</v>
       </c>
       <c r="P26" t="n">
-        <v>10.52940247294129</v>
+        <v>10.5294024729413</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2010235009403293</v>
+        <v>6.502976110201114</v>
       </c>
       <c r="L27" t="n">
-        <v>16.34750130909317</v>
+        <v>16.34750130909318</v>
       </c>
       <c r="M27" t="n">
-        <v>22.25402668103337</v>
+        <v>22.25402668103338</v>
       </c>
       <c r="N27" t="n">
         <v>23.86249467691512</v>
       </c>
       <c r="O27" t="n">
-        <v>19.41327970513234</v>
+        <v>19.41327970513235</v>
       </c>
       <c r="P27" t="n">
-        <v>12.40751163547888</v>
+        <v>6.005273573538448</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.1002854526796142</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>20.29432722849722</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>23.86249467691512</v>
       </c>
-      <c r="L28" t="n">
-        <v>0.3903723299035775</v>
-      </c>
       <c r="M28" t="n">
+        <v>0.9464120692640599</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.213653919447051</v>
+      </c>
+      <c r="O28" t="n">
         <v>23.86249467691512</v>
       </c>
-      <c r="N28" t="n">
-        <v>2.213653919447047</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>19.73828748913673</v>
       </c>
       <c r="Q28" t="n">
         <v>23.86249467691512</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.100738048260708</v>
+        <v>6.502976110201111</v>
       </c>
       <c r="L30" t="n">
         <v>16.34750130909317</v>
@@ -36925,7 +36925,7 @@
         <v>23.86249467691512</v>
       </c>
       <c r="O30" t="n">
-        <v>19.41327970513234</v>
+        <v>13.01104164319196</v>
       </c>
       <c r="P30" t="n">
         <v>12.40751163547888</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.29432722849721</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="K31" t="n">
         <v>23.86249467691512</v>
@@ -36998,19 +36998,19 @@
         <v>0.3903723299035775</v>
       </c>
       <c r="M31" t="n">
-        <v>23.86249467691512</v>
+        <v>0.9464120692640563</v>
       </c>
       <c r="N31" t="n">
         <v>2.213653919447047</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>19.34791515923316</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>6.502976110201111</v>
+        <v>0.1007380482607362</v>
       </c>
       <c r="L33" t="n">
         <v>16.34750130909317</v>
@@ -37165,10 +37165,10 @@
         <v>19.41327970513234</v>
       </c>
       <c r="P33" t="n">
-        <v>6.105559026218098</v>
+        <v>12.40751163547888</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.1002854526796106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>23.86249467691512</v>
       </c>
       <c r="K34" t="n">
-        <v>20.29432722849722</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3903723299035775</v>
+        <v>19.73828748913675</v>
       </c>
       <c r="M34" t="n">
-        <v>23.86249467691512</v>
+        <v>0.9464120692640563</v>
       </c>
       <c r="N34" t="n">
         <v>2.213653919447047</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1007380482606869</v>
+        <v>6.502976110201111</v>
       </c>
       <c r="L36" t="n">
         <v>16.34750130909317</v>
@@ -37396,16 +37396,16 @@
         <v>22.25402668103337</v>
       </c>
       <c r="N36" t="n">
-        <v>23.86249467691511</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="O36" t="n">
         <v>19.41327970513234</v>
       </c>
       <c r="P36" t="n">
-        <v>12.40751163547888</v>
+        <v>6.105559026218098</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1002854526796106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86249467691511</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>19.34791515923316</v>
       </c>
       <c r="L37" t="n">
         <v>0.3903723299035775</v>
       </c>
       <c r="M37" t="n">
-        <v>22.50798114794425</v>
+        <v>0.9464120692640563</v>
       </c>
       <c r="N37" t="n">
-        <v>23.86249467691511</v>
+        <v>2.213653919447047</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.86249467691511</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>6.502976110201111</v>
+        <v>0.100738048260708</v>
       </c>
       <c r="L39" t="n">
         <v>16.34750130909317</v>
       </c>
       <c r="M39" t="n">
-        <v>15.85178861909299</v>
+        <v>22.25402668103337</v>
       </c>
       <c r="N39" t="n">
         <v>23.86249467691512</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
+        <v>22.89835347784784</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>23.86249467691512</v>
-      </c>
-      <c r="K40" t="n">
-        <v>22.50798114794427</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.3903723299035775</v>
       </c>
       <c r="M40" t="n">
         <v>23.86249467691512</v>
@@ -37870,10 +37870,10 @@
         <v>22.25402668103337</v>
       </c>
       <c r="N42" t="n">
-        <v>17.56054206765434</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="O42" t="n">
-        <v>19.41327970513234</v>
+        <v>13.11132709587155</v>
       </c>
       <c r="P42" t="n">
         <v>12.40751163547888</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>19.34791515923315</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="L43" t="n">
+        <v>0.3903723299035775</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.9464120692640563</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.213653919447047</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>23.86249467691512</v>
       </c>
-      <c r="M43" t="n">
+      <c r="Q43" t="n">
         <v>23.86249467691512</v>
-      </c>
-      <c r="N43" t="n">
-        <v>23.86249467691512</v>
-      </c>
-      <c r="O43" t="n">
-        <v>22.89835347784783</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>8.328292136334582</v>
+        <v>6.787925067696136</v>
       </c>
       <c r="L44" t="n">
-        <v>16.38909020876143</v>
+        <v>14.47812865154192</v>
       </c>
       <c r="M44" t="n">
-        <v>23.43428694399438</v>
+        <v>21.30797400871487</v>
       </c>
       <c r="N44" t="n">
-        <v>24.57079523842005</v>
+        <v>22.41007633685599</v>
       </c>
       <c r="O44" t="n">
-        <v>21.01263655881549</v>
+        <v>18.97233097084299</v>
       </c>
       <c r="P44" t="n">
-        <v>12.27075608813773</v>
+        <v>10.52940247294129</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.30768404456181</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>7.549212767262244</v>
+        <v>6.502976110201111</v>
       </c>
       <c r="L45" t="n">
-        <v>17.75429560813468</v>
+        <v>16.34750130909317</v>
       </c>
       <c r="M45" t="n">
-        <v>23.89568927381447</v>
+        <v>22.25402668103337</v>
       </c>
       <c r="N45" t="n">
-        <v>26.89319241738202</v>
+        <v>17.56054206765434</v>
       </c>
       <c r="O45" t="n">
-        <v>16.64907062884335</v>
+        <v>19.41327970513234</v>
       </c>
       <c r="P45" t="n">
-        <v>13.64474040412183</v>
+        <v>12.40751163547888</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.9273401194668871</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27.10214433847837</v>
+        <v>22.89835347784785</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.197944898480571</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="M46" t="n">
-        <v>27.10214433847837</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="N46" t="n">
-        <v>3.044879860920478</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="O46" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>21.76428344418931</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
